--- a/Localization_translated.xlsx
+++ b/Localization_translated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB03588\Downloads\personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qsefthuopq\Documents\GitHub\personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651BFEF1-7656-437B-ABDC-B75CE28B15EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="3885" windowWidth="23025" windowHeight="11715"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="23025" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="922">
   <si>
     <t>key</t>
   </si>
@@ -880,9 +881,6 @@
     <t>Kule merkezli genişleyen bir ölüm dalgası yayar</t>
   </si>
   <si>
-    <t>从塔楼释放一道不断扩散的死亡冲击波</t>
-  </si>
-  <si>
     <t>Rollerbomb_description</t>
   </si>
   <si>
@@ -916,9 +914,6 @@
     <t>Yok edildiğinde yenilenen, kuleyi koruyan bir katman oluşturur</t>
   </si>
   <si>
-    <t>在塔楼周围生成可再生的防护层</t>
-  </si>
-  <si>
     <t>ShieldShatter_description</t>
   </si>
   <si>
@@ -1600,9 +1595,6 @@
     <t>Kule</t>
   </si>
   <si>
-    <t>塔楼</t>
-  </si>
-  <si>
     <t>TowerUpgrade</t>
   </si>
   <si>
@@ -1612,9 +1604,6 @@
     <t>Kule Güçlendirmesi</t>
   </si>
   <si>
-    <t>升级防御塔</t>
-  </si>
-  <si>
     <t>WeaponUnlock</t>
   </si>
   <si>
@@ -2131,9 +2120,6 @@
     <t>Kule sağlığı %50’nin üzerindeyse düşmanlara verilen hasarı %{0} artırır.</t>
   </si>
   <si>
-    <t>若塔楼生命值高于50%，对敌人造成的伤害提升{0}%。</t>
-  </si>
-  <si>
     <t>augment_towerlowdmg_description</t>
   </si>
   <si>
@@ -2143,9 +2129,6 @@
     <t>Kule sağlığı %50’nin altındaysa düşmanlara verilen hasarı %{0} artırır.</t>
   </si>
   <si>
-    <t>当防御塔生命值低于50%时，对敌人造成的伤害提升{0}%。</t>
-  </si>
-  <si>
     <t>augment_button_buyxp</t>
   </si>
   <si>
@@ -2258,9 +2241,6 @@
   </si>
   <si>
     <t>Madalya, kule seviye atladığında elde edilir. Takviyeleri satın almak için kullanılır</t>
-  </si>
-  <si>
-    <t>勋章在塔楼升级时获得，可用于购买强化组件</t>
   </si>
   <si>
     <t>resource_info_bosstoken</t>
@@ -2413,9 +2393,6 @@
 insanlığın son sığınağı Bastion’u koruyor.</t>
   </si>
   <si>
-    <t>一座遍布大陆的武装塔楼网络，正守护着人类最后的避难所——巴斯特恩。</t>
-  </si>
-  <si>
     <t>ui_cutscene_intro_d</t>
   </si>
   <si>
@@ -2425,10 +2402,6 @@
   <si>
     <t>Kuleler şimdilik dayanıyor, ama nereye kadar?
 Makine ordusu devamlı kendini yeniliyor.</t>
-  </si>
-  <si>
-    <t>防御塔依然坚挺，但还能支撑多久？  
-机械军团正在不断进化。</t>
   </si>
   <si>
     <t>ui_cutscene_intro_e</t>
@@ -2835,10 +2808,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一座遍布大陆的武装塔楼网络，正守护着人类最后的避难所——堡垒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>感谢游玩本游戏</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2847,10 +2816,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>敌人死亡时+{0}%几率爆炸。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>处决生命值低于25%的敌人几率+{0}%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2880,14 +2845,88 @@
   </si>
   <si>
     <t>对精英敌人造成的伤害提高{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人死亡时+{0}%几率爆炸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从皮纳塔掉落所有可收集资源几率+{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有资源获取的经验值提升{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功完成关卡后，额外+{0}%经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡以任意方式结束后，额外+{0}%资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集资源会对随机敌人造成{0}点伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级炮塔</t>
+  </si>
+  <si>
+    <t>当炮塔生命值低于50%时，对敌人造成的伤害提升{0}%</t>
+  </si>
+  <si>
+    <t>当炮塔生命值低于50%时，对敌人造成的伤害提升{0}%。</t>
+  </si>
+  <si>
+    <t>炮塔依然坚挺，但还能支撑多久？  
+机械军团正在不断进化。</t>
+  </si>
+  <si>
+    <t>若炮塔生命值高于50%，对敌人造成的伤害提升{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从炮塔释放一道不断扩散的死亡冲击波</t>
+  </si>
+  <si>
+    <t>在炮塔周围生成可再生的防护层</t>
+  </si>
+  <si>
+    <t>炮塔</t>
+  </si>
+  <si>
+    <t>若炮塔生命值高于50%，对敌人造成的伤害提升{0}%。</t>
+  </si>
+  <si>
+    <t>勋章在炮塔升级时获得，可用于购买强化组件</t>
+  </si>
+  <si>
+    <t>一座遍布大陆的武装炮塔网络，正守护着人类最后的避难所——堡垒。</t>
+  </si>
+  <si>
+    <t>一座遍布大陆的武装炮塔网络，正守护着人类最后的避难所——巴斯特恩。</t>
+  </si>
+  <si>
+    <t>宝藏由皮纳塔掉落。用于购买升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器可通过消灭敌人和精英武器获得，用于购买强化项与升级弹珠机。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量核心在成功完成程序后获得。可用于购买升级。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3263,21 +3302,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D180" sqref="D180"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="89" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="106" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3288,7 +3327,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3312,13 +3351,13 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3329,7 +3368,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -3350,21 +3389,21 @@
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -3388,7 +3427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3399,13 +3438,13 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="L4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3422,7 +3461,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -3439,7 +3478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -3450,13 +3489,13 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="L7" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3467,13 +3506,13 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="L8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -3484,13 +3523,13 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="L9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3501,13 +3540,13 @@
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="L10" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -3524,7 +3563,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -3538,7 +3577,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -3555,7 +3594,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -3566,13 +3605,13 @@
         <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="L14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -3589,7 +3628,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -3600,13 +3639,13 @@
         <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="L16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -3623,7 +3662,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -3640,7 +3679,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -3657,7 +3696,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -3674,7 +3713,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -3685,13 +3724,13 @@
         <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="L21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -3708,7 +3747,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -3725,7 +3764,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -3742,7 +3781,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -3753,13 +3792,13 @@
         <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="L25" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -3776,7 +3815,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>118</v>
       </c>
@@ -3787,13 +3826,13 @@
         <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="L27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>122</v>
       </c>
@@ -3810,7 +3849,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>126</v>
       </c>
@@ -3821,13 +3860,13 @@
         <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="L29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -3844,7 +3883,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -3861,7 +3900,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -3878,7 +3917,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -3895,7 +3934,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -3912,7 +3951,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>150</v>
       </c>
@@ -3929,7 +3968,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -3940,13 +3979,13 @@
         <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="L36" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>158</v>
       </c>
@@ -3957,13 +3996,13 @@
         <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="L37" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -3980,7 +4019,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -3991,30 +4030,30 @@
         <v>168</v>
       </c>
       <c r="D39" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="L39" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="C40" t="s">
         <v>171</v>
       </c>
       <c r="D40" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="L40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>173</v>
       </c>
@@ -4025,13 +4064,13 @@
         <v>175</v>
       </c>
       <c r="D41" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="L41" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>177</v>
       </c>
@@ -4048,7 +4087,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>181</v>
       </c>
@@ -4065,7 +4104,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>184</v>
       </c>
@@ -4076,13 +4115,13 @@
         <v>185</v>
       </c>
       <c r="D44" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="L44" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>187</v>
       </c>
@@ -4099,7 +4138,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -4116,7 +4155,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>194</v>
       </c>
@@ -4133,7 +4172,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>198</v>
       </c>
@@ -4150,7 +4189,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>202</v>
       </c>
@@ -4167,7 +4206,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>205</v>
       </c>
@@ -4178,13 +4217,13 @@
         <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="L50" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>208</v>
       </c>
@@ -4201,7 +4240,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>210</v>
       </c>
@@ -4218,7 +4257,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>213</v>
       </c>
@@ -4235,7 +4274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>215</v>
       </c>
@@ -4252,7 +4291,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -4269,7 +4308,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -4286,7 +4325,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>224</v>
       </c>
@@ -4303,7 +4342,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>228</v>
       </c>
@@ -4320,7 +4359,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>231</v>
       </c>
@@ -4331,13 +4370,13 @@
         <v>232</v>
       </c>
       <c r="D59" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="L59" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>234</v>
       </c>
@@ -4354,7 +4393,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>238</v>
       </c>
@@ -4365,13 +4404,13 @@
         <v>239</v>
       </c>
       <c r="D61" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="L61" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>240</v>
       </c>
@@ -4388,7 +4427,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>243</v>
       </c>
@@ -4405,7 +4444,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>247</v>
       </c>
@@ -4416,13 +4455,13 @@
         <v>249</v>
       </c>
       <c r="D64" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="L64" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>251</v>
       </c>
@@ -4439,7 +4478,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>255</v>
       </c>
@@ -4456,7 +4495,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>259</v>
       </c>
@@ -4467,13 +4506,13 @@
         <v>261</v>
       </c>
       <c r="D67" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="L67" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>263</v>
       </c>
@@ -4490,7 +4529,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>267</v>
       </c>
@@ -4507,7 +4546,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>271</v>
       </c>
@@ -4518,13 +4557,13 @@
         <v>273</v>
       </c>
       <c r="D70" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="L70" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>275</v>
       </c>
@@ -4535,13 +4574,13 @@
         <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="L71" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>279</v>
       </c>
@@ -4552,13 +4591,13 @@
         <v>281</v>
       </c>
       <c r="D72" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="L72" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>283</v>
       </c>
@@ -4569,319 +4608,319 @@
         <v>285</v>
       </c>
       <c r="D73" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="L73" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
         <v>287</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>288</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>289</v>
       </c>
-      <c r="D74" t="s">
+      <c r="L74" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>290</v>
       </c>
-      <c r="L74" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
         <v>291</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>292</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>845</v>
+      </c>
+      <c r="L75" t="s">
         <v>293</v>
       </c>
-      <c r="D75" t="s">
-        <v>854</v>
-      </c>
-      <c r="L75" t="s">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
         <v>295</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>296</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>846</v>
+      </c>
+      <c r="L76" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
         <v>297</v>
       </c>
-      <c r="D76" t="s">
-        <v>855</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="B77" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" t="s">
+      <c r="C77" t="s">
         <v>299</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
         <v>300</v>
       </c>
-      <c r="C77" t="s">
+      <c r="L77" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
         <v>301</v>
       </c>
-      <c r="D77" t="s">
+      <c r="B78" t="s">
         <v>302</v>
       </c>
-      <c r="L77" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" t="s">
+      <c r="C78" t="s">
         <v>303</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D78" t="s">
         <v>304</v>
       </c>
-      <c r="C78" t="s">
+      <c r="L78" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
         <v>305</v>
       </c>
-      <c r="D78" t="s">
+      <c r="B79" t="s">
         <v>306</v>
       </c>
-      <c r="L78" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" t="s">
+      <c r="C79" t="s">
         <v>307</v>
       </c>
-      <c r="B79" t="s">
+      <c r="D79" t="s">
         <v>308</v>
       </c>
-      <c r="C79" t="s">
+      <c r="L79" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
         <v>309</v>
       </c>
-      <c r="D79" t="s">
+      <c r="B80" t="s">
         <v>310</v>
       </c>
-      <c r="L79" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" t="s">
+      <c r="C80" t="s">
         <v>311</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D80" t="s">
         <v>312</v>
       </c>
-      <c r="C80" t="s">
+      <c r="L80" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
         <v>313</v>
       </c>
-      <c r="D80" t="s">
+      <c r="B81" t="s">
         <v>314</v>
       </c>
-      <c r="L80" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" t="s">
+      <c r="C81" t="s">
         <v>315</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
         <v>316</v>
       </c>
-      <c r="C81" t="s">
+      <c r="L81" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
         <v>317</v>
       </c>
-      <c r="D81" t="s">
+      <c r="B82" t="s">
         <v>318</v>
       </c>
-      <c r="L81" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" t="s">
+      <c r="C82" t="s">
         <v>319</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D82" t="s">
+        <v>847</v>
+      </c>
+      <c r="L82" t="s">
         <v>320</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
         <v>321</v>
       </c>
-      <c r="D82" t="s">
-        <v>856</v>
-      </c>
-      <c r="L82" t="s">
+      <c r="B83" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" t="s">
+      <c r="C83" t="s">
         <v>323</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83" t="s">
+        <v>848</v>
+      </c>
+      <c r="L83" t="s">
         <v>324</v>
       </c>
-      <c r="C83" t="s">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
         <v>325</v>
       </c>
-      <c r="D83" t="s">
-        <v>857</v>
-      </c>
-      <c r="L83" t="s">
+      <c r="B84" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" t="s">
+      <c r="C84" t="s">
         <v>327</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" t="s">
         <v>328</v>
       </c>
-      <c r="C84" t="s">
+      <c r="L84" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
         <v>329</v>
       </c>
-      <c r="D84" t="s">
+      <c r="B85" t="s">
         <v>330</v>
       </c>
-      <c r="L84" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" t="s">
+      <c r="C85" t="s">
         <v>331</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
+        <v>849</v>
+      </c>
+      <c r="L85" t="s">
         <v>332</v>
       </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
         <v>333</v>
       </c>
-      <c r="D85" t="s">
-        <v>858</v>
-      </c>
-      <c r="L85" t="s">
+      <c r="B86" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" t="s">
+      <c r="C86" t="s">
         <v>335</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
+        <v>850</v>
+      </c>
+      <c r="L86" t="s">
         <v>336</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>337</v>
       </c>
-      <c r="D86" t="s">
-        <v>859</v>
-      </c>
-      <c r="L86" t="s">
+      <c r="B87" t="s">
+        <v>852</v>
+      </c>
+      <c r="C87" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" t="s">
+      <c r="D87" t="s">
+        <v>851</v>
+      </c>
+      <c r="L87" t="s">
         <v>339</v>
       </c>
-      <c r="B87" t="s">
-        <v>861</v>
-      </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>340</v>
       </c>
-      <c r="D87" t="s">
-        <v>860</v>
-      </c>
-      <c r="L87" t="s">
+      <c r="B88" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" t="s">
+      <c r="C88" t="s">
         <v>342</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
         <v>343</v>
       </c>
-      <c r="C88" t="s">
+      <c r="L88" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
         <v>344</v>
       </c>
-      <c r="D88" t="s">
+      <c r="B89" t="s">
+        <v>344</v>
+      </c>
+      <c r="C89" t="s">
         <v>345</v>
       </c>
-      <c r="L88" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" t="s">
+      <c r="D89" t="s">
         <v>346</v>
       </c>
-      <c r="B89" t="s">
+      <c r="L89" t="s">
         <v>346</v>
       </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
         <v>347</v>
       </c>
-      <c r="D89" t="s">
+      <c r="B90" t="s">
         <v>348</v>
       </c>
-      <c r="L89" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" t="s">
+      <c r="C90" t="s">
         <v>349</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>350</v>
       </c>
-      <c r="C90" t="s">
+      <c r="L90" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>351</v>
       </c>
-      <c r="D90" t="s">
+      <c r="B91" t="s">
         <v>352</v>
       </c>
-      <c r="L90" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" t="s">
+      <c r="C91" t="s">
         <v>353</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
         <v>354</v>
       </c>
-      <c r="C91" t="s">
-        <v>355</v>
-      </c>
-      <c r="D91" t="s">
-        <v>356</v>
-      </c>
       <c r="L91" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -4898,140 +4937,140 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
+        <v>355</v>
+      </c>
+      <c r="B93" t="s">
+        <v>356</v>
+      </c>
+      <c r="C93" t="s">
         <v>357</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>358</v>
       </c>
-      <c r="C93" t="s">
+      <c r="L93" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>359</v>
       </c>
-      <c r="D93" t="s">
+      <c r="B94" t="s">
         <v>360</v>
       </c>
-      <c r="L93" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" t="s">
+      <c r="C94" t="s">
         <v>361</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
+        <v>853</v>
+      </c>
+      <c r="L94" t="s">
         <v>362</v>
       </c>
-      <c r="C94" t="s">
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
         <v>363</v>
       </c>
-      <c r="D94" t="s">
-        <v>862</v>
-      </c>
-      <c r="L94" t="s">
+      <c r="B95" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" t="s">
+      <c r="C95" t="s">
         <v>365</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
+        <v>854</v>
+      </c>
+      <c r="L95" t="s">
         <v>366</v>
       </c>
-      <c r="C95" t="s">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
         <v>367</v>
       </c>
-      <c r="D95" t="s">
-        <v>863</v>
-      </c>
-      <c r="L95" t="s">
+      <c r="B96" t="s">
+        <v>367</v>
+      </c>
+      <c r="C96" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" t="s">
+      <c r="D96" t="s">
+        <v>855</v>
+      </c>
+      <c r="L96" t="s">
         <v>369</v>
       </c>
-      <c r="B96" t="s">
-        <v>369</v>
-      </c>
-      <c r="C96" t="s">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
         <v>370</v>
       </c>
-      <c r="D96" t="s">
-        <v>864</v>
-      </c>
-      <c r="L96" t="s">
+      <c r="B97" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" t="s">
+      <c r="D97" t="s">
         <v>372</v>
       </c>
-      <c r="B97" t="s">
+      <c r="L97" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
         <v>373</v>
       </c>
-      <c r="D97" t="s">
+      <c r="B98" t="s">
+        <v>373</v>
+      </c>
+      <c r="C98" t="s">
         <v>374</v>
       </c>
-      <c r="L97" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98" t="s">
+      <c r="D98" t="s">
+        <v>856</v>
+      </c>
+      <c r="L98" t="s">
         <v>375</v>
       </c>
-      <c r="B98" t="s">
-        <v>375</v>
-      </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
         <v>376</v>
       </c>
-      <c r="D98" t="s">
-        <v>865</v>
-      </c>
-      <c r="L98" t="s">
+      <c r="B99" t="s">
+        <v>376</v>
+      </c>
+      <c r="C99" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" t="s">
+      <c r="D99" t="s">
         <v>378</v>
       </c>
-      <c r="B99" t="s">
+      <c r="L99" t="s">
         <v>378</v>
       </c>
-      <c r="C99" t="s">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
         <v>379</v>
       </c>
-      <c r="D99" t="s">
+      <c r="B100" t="s">
+        <v>379</v>
+      </c>
+      <c r="C100" t="s">
         <v>380</v>
       </c>
-      <c r="L99" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" t="s">
+      <c r="D100" t="s">
         <v>381</v>
       </c>
-      <c r="B100" t="s">
+      <c r="L100" t="s">
         <v>381</v>
       </c>
-      <c r="C100" t="s">
-        <v>382</v>
-      </c>
-      <c r="D100" t="s">
-        <v>383</v>
-      </c>
-      <c r="L100" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>139</v>
       </c>
@@ -5048,737 +5087,737 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
+        <v>382</v>
+      </c>
+      <c r="B102" t="s">
+        <v>383</v>
+      </c>
+      <c r="D102" t="s">
+        <v>857</v>
+      </c>
+      <c r="L102" t="s">
         <v>384</v>
       </c>
-      <c r="B102" t="s">
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
         <v>385</v>
       </c>
-      <c r="D102" t="s">
-        <v>866</v>
-      </c>
-      <c r="L102" t="s">
+      <c r="B103" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="A103" t="s">
+      <c r="C103" t="s">
         <v>387</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
         <v>388</v>
       </c>
-      <c r="C103" t="s">
+      <c r="L103" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
         <v>389</v>
       </c>
-      <c r="D103" t="s">
+      <c r="B104" t="s">
         <v>390</v>
       </c>
-      <c r="L103" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="A104" t="s">
+      <c r="C104" t="s">
         <v>391</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
         <v>392</v>
       </c>
-      <c r="C104" t="s">
+      <c r="L104" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
         <v>393</v>
       </c>
-      <c r="D104" t="s">
+      <c r="B105" t="s">
         <v>394</v>
       </c>
-      <c r="L104" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
-      <c r="A105" t="s">
+      <c r="C105" t="s">
         <v>395</v>
       </c>
-      <c r="B105" t="s">
+      <c r="D105" t="s">
         <v>396</v>
       </c>
-      <c r="C105" t="s">
+      <c r="L105" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
         <v>397</v>
       </c>
-      <c r="D105" t="s">
+      <c r="B106" t="s">
         <v>398</v>
       </c>
-      <c r="L105" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106" t="s">
+      <c r="C106" t="s">
         <v>399</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
         <v>400</v>
       </c>
-      <c r="C106" t="s">
+      <c r="L106" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
         <v>401</v>
       </c>
-      <c r="D106" t="s">
+      <c r="B107" t="s">
         <v>402</v>
       </c>
-      <c r="L106" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
-      <c r="A107" t="s">
+      <c r="C107" t="s">
         <v>403</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D107" t="s">
         <v>404</v>
       </c>
-      <c r="C107" t="s">
+      <c r="L107" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
         <v>405</v>
       </c>
-      <c r="D107" t="s">
+      <c r="B108" t="s">
+        <v>405</v>
+      </c>
+      <c r="C108" t="s">
         <v>406</v>
       </c>
-      <c r="L107" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
-      <c r="A108" t="s">
+      <c r="D108" t="s">
         <v>407</v>
       </c>
-      <c r="B108" t="s">
+      <c r="L108" t="s">
         <v>407</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
         <v>408</v>
       </c>
-      <c r="D108" t="s">
+      <c r="B109" t="s">
+        <v>408</v>
+      </c>
+      <c r="C109" t="s">
         <v>409</v>
       </c>
-      <c r="L108" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
-      <c r="A109" t="s">
+      <c r="D109" t="s">
         <v>410</v>
       </c>
-      <c r="B109" t="s">
+      <c r="L109" t="s">
         <v>410</v>
       </c>
-      <c r="C109" t="s">
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
         <v>411</v>
       </c>
-      <c r="D109" t="s">
+      <c r="B110" t="s">
         <v>412</v>
       </c>
-      <c r="L109" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
-      <c r="A110" t="s">
+      <c r="C110" t="s">
         <v>413</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D110" t="s">
         <v>414</v>
       </c>
-      <c r="C110" t="s">
+      <c r="L110" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
         <v>415</v>
       </c>
-      <c r="D110" t="s">
+      <c r="B111" t="s">
+        <v>415</v>
+      </c>
+      <c r="C111" t="s">
         <v>416</v>
       </c>
-      <c r="L110" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
-      <c r="A111" t="s">
+      <c r="D111" t="s">
         <v>417</v>
       </c>
-      <c r="B111" t="s">
+      <c r="L111" t="s">
         <v>417</v>
       </c>
-      <c r="C111" t="s">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
         <v>418</v>
       </c>
-      <c r="D111" t="s">
+      <c r="B112" t="s">
         <v>419</v>
       </c>
-      <c r="L111" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="A112" t="s">
+      <c r="C112" t="s">
         <v>420</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D112" t="s">
         <v>421</v>
       </c>
-      <c r="C112" t="s">
+      <c r="L112" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
         <v>422</v>
       </c>
-      <c r="D112" t="s">
+      <c r="B113" t="s">
         <v>423</v>
       </c>
-      <c r="L112" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="A113" t="s">
+      <c r="C113" t="s">
         <v>424</v>
       </c>
-      <c r="B113" t="s">
+      <c r="D113" t="s">
         <v>425</v>
       </c>
-      <c r="C113" t="s">
+      <c r="L113" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
         <v>426</v>
       </c>
-      <c r="D113" t="s">
+      <c r="B114" t="s">
+        <v>426</v>
+      </c>
+      <c r="C114" t="s">
         <v>427</v>
       </c>
-      <c r="L113" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
-      <c r="A114" t="s">
+      <c r="D114" t="s">
         <v>428</v>
       </c>
-      <c r="B114" t="s">
+      <c r="L114" t="s">
         <v>428</v>
       </c>
-      <c r="C114" t="s">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
         <v>429</v>
       </c>
-      <c r="D114" t="s">
+      <c r="B115" t="s">
         <v>430</v>
       </c>
-      <c r="L114" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" t="s">
+      <c r="C115" t="s">
         <v>431</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
         <v>432</v>
       </c>
-      <c r="C115" t="s">
+      <c r="L115" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
         <v>433</v>
       </c>
-      <c r="D115" t="s">
+      <c r="B116" t="s">
+        <v>433</v>
+      </c>
+      <c r="C116" t="s">
         <v>434</v>
       </c>
-      <c r="L115" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="A116" t="s">
+      <c r="D116" t="s">
         <v>435</v>
       </c>
-      <c r="B116" t="s">
+      <c r="L116" t="s">
         <v>435</v>
       </c>
-      <c r="C116" t="s">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
         <v>436</v>
       </c>
-      <c r="D116" t="s">
+      <c r="B117" t="s">
         <v>437</v>
       </c>
-      <c r="L116" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="A117" t="s">
+      <c r="C117" t="s">
         <v>438</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
         <v>439</v>
       </c>
-      <c r="C117" t="s">
+      <c r="L117" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
         <v>440</v>
       </c>
-      <c r="D117" t="s">
+      <c r="B118" t="s">
         <v>441</v>
       </c>
-      <c r="L117" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="A118" t="s">
+      <c r="C118" t="s">
         <v>442</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D118" t="s">
+        <v>859</v>
+      </c>
+      <c r="L118" t="s">
         <v>443</v>
       </c>
-      <c r="C118" t="s">
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
         <v>444</v>
       </c>
-      <c r="D118" t="s">
-        <v>868</v>
-      </c>
-      <c r="L118" t="s">
+      <c r="B119" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="119" spans="1:12">
-      <c r="A119" t="s">
+      <c r="C119" t="s">
         <v>446</v>
       </c>
-      <c r="B119" t="s">
+      <c r="D119" t="s">
+        <v>858</v>
+      </c>
+      <c r="L119" t="s">
         <v>447</v>
       </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
         <v>448</v>
       </c>
-      <c r="D119" t="s">
-        <v>867</v>
-      </c>
-      <c r="L119" t="s">
+      <c r="B120" t="s">
+        <v>860</v>
+      </c>
+      <c r="C120" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="A120" t="s">
+      <c r="D120" t="s">
+        <v>861</v>
+      </c>
+      <c r="L120" t="s">
         <v>450</v>
       </c>
-      <c r="B120" t="s">
-        <v>869</v>
-      </c>
-      <c r="C120" t="s">
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
         <v>451</v>
       </c>
-      <c r="D120" t="s">
-        <v>870</v>
-      </c>
-      <c r="L120" t="s">
+      <c r="B121" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="121" spans="1:12">
-      <c r="A121" t="s">
+      <c r="C121" t="s">
         <v>453</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
         <v>454</v>
       </c>
-      <c r="C121" t="s">
+      <c r="L121" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
         <v>455</v>
       </c>
-      <c r="D121" t="s">
+      <c r="B122" t="s">
         <v>456</v>
       </c>
-      <c r="L121" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="A122" t="s">
+      <c r="C122" t="s">
         <v>457</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122" t="s">
         <v>458</v>
       </c>
-      <c r="C122" t="s">
+      <c r="L122" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
         <v>459</v>
       </c>
-      <c r="D122" t="s">
+      <c r="B123" t="s">
         <v>460</v>
       </c>
-      <c r="L122" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
-      <c r="A123" t="s">
+      <c r="C123" t="s">
         <v>461</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" t="s">
         <v>462</v>
       </c>
-      <c r="C123" t="s">
+      <c r="L123" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
         <v>463</v>
       </c>
-      <c r="D123" t="s">
+      <c r="B124" t="s">
         <v>464</v>
       </c>
-      <c r="L123" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
-      <c r="A124" t="s">
+      <c r="C124" t="s">
         <v>465</v>
       </c>
-      <c r="B124" t="s">
+      <c r="D124" t="s">
         <v>466</v>
       </c>
-      <c r="C124" t="s">
+      <c r="L124" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
         <v>467</v>
       </c>
-      <c r="D124" t="s">
+      <c r="B125" t="s">
         <v>468</v>
       </c>
-      <c r="L124" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="A125" t="s">
+      <c r="C125" t="s">
         <v>469</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D125" t="s">
         <v>470</v>
       </c>
-      <c r="C125" t="s">
+      <c r="L125" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
         <v>471</v>
       </c>
-      <c r="D125" t="s">
+      <c r="B126" t="s">
+        <v>471</v>
+      </c>
+      <c r="C126" t="s">
         <v>472</v>
       </c>
-      <c r="L125" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
-      <c r="A126" t="s">
+      <c r="D126" t="s">
+        <v>862</v>
+      </c>
+      <c r="L126" t="s">
         <v>473</v>
       </c>
-      <c r="B126" t="s">
-        <v>473</v>
-      </c>
-      <c r="C126" t="s">
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
         <v>474</v>
       </c>
-      <c r="D126" t="s">
-        <v>871</v>
-      </c>
-      <c r="L126" t="s">
+      <c r="B127" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="127" spans="1:12">
-      <c r="A127" t="s">
+      <c r="C127" t="s">
         <v>476</v>
       </c>
-      <c r="B127" t="s">
+      <c r="D127" t="s">
         <v>477</v>
       </c>
-      <c r="C127" t="s">
+      <c r="L127" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
         <v>478</v>
       </c>
-      <c r="D127" t="s">
+      <c r="B128" t="s">
+        <v>478</v>
+      </c>
+      <c r="C128" t="s">
         <v>479</v>
       </c>
-      <c r="L127" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
-      <c r="A128" t="s">
+      <c r="D128" t="s">
         <v>480</v>
       </c>
-      <c r="B128" t="s">
+      <c r="L128" t="s">
         <v>480</v>
       </c>
-      <c r="C128" t="s">
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
         <v>481</v>
       </c>
-      <c r="D128" t="s">
+      <c r="B129" t="s">
         <v>482</v>
       </c>
-      <c r="L128" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
-      <c r="A129" t="s">
+      <c r="C129" t="s">
         <v>483</v>
       </c>
-      <c r="B129" t="s">
+      <c r="D129" t="s">
         <v>484</v>
       </c>
-      <c r="C129" t="s">
+      <c r="L129" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
         <v>485</v>
       </c>
-      <c r="D129" t="s">
+      <c r="B130" t="s">
+        <v>485</v>
+      </c>
+      <c r="C130" t="s">
         <v>486</v>
       </c>
-      <c r="L129" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" t="s">
+      <c r="D130" t="s">
         <v>487</v>
       </c>
-      <c r="B130" t="s">
+      <c r="L130" t="s">
         <v>487</v>
       </c>
-      <c r="C130" t="s">
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
         <v>488</v>
       </c>
-      <c r="D130" t="s">
+      <c r="B131" t="s">
         <v>489</v>
       </c>
-      <c r="L130" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
-      <c r="A131" t="s">
+      <c r="C131" t="s">
         <v>490</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D131" t="s">
         <v>491</v>
       </c>
-      <c r="C131" t="s">
+      <c r="L131" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
         <v>492</v>
       </c>
-      <c r="D131" t="s">
+      <c r="B132" t="s">
+        <v>492</v>
+      </c>
+      <c r="C132" t="s">
         <v>493</v>
       </c>
-      <c r="L131" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
-      <c r="A132" t="s">
+      <c r="D132" t="s">
         <v>494</v>
       </c>
-      <c r="B132" t="s">
+      <c r="L132" t="s">
         <v>494</v>
       </c>
-      <c r="C132" t="s">
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
         <v>495</v>
       </c>
-      <c r="D132" t="s">
+      <c r="B133" t="s">
+        <v>495</v>
+      </c>
+      <c r="C133" t="s">
         <v>496</v>
       </c>
-      <c r="L132" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
-      <c r="A133" t="s">
-        <v>497</v>
-      </c>
-      <c r="B133" t="s">
-        <v>497</v>
-      </c>
-      <c r="C133" t="s">
-        <v>498</v>
-      </c>
       <c r="D133" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="L133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
+        <v>497</v>
+      </c>
+      <c r="B134" t="s">
+        <v>498</v>
+      </c>
+      <c r="C134" t="s">
         <v>499</v>
       </c>
-      <c r="B134" t="s">
+      <c r="D134" t="s">
         <v>500</v>
       </c>
-      <c r="C134" t="s">
+      <c r="L134" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
         <v>501</v>
       </c>
-      <c r="D134" t="s">
+      <c r="B135" t="s">
+        <v>501</v>
+      </c>
+      <c r="C135" t="s">
         <v>502</v>
       </c>
-      <c r="L134" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
-      <c r="A135" t="s">
+      <c r="D135" t="s">
         <v>503</v>
       </c>
-      <c r="B135" t="s">
+      <c r="L135" t="s">
         <v>503</v>
       </c>
-      <c r="C135" t="s">
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
         <v>504</v>
       </c>
-      <c r="D135" t="s">
+      <c r="B136" t="s">
         <v>505</v>
       </c>
-      <c r="L135" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
-      <c r="A136" t="s">
+      <c r="C136" t="s">
         <v>506</v>
       </c>
-      <c r="B136" t="s">
+      <c r="D136" t="s">
+        <v>864</v>
+      </c>
+      <c r="L136" t="s">
         <v>507</v>
       </c>
-      <c r="C136" t="s">
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
         <v>508</v>
       </c>
-      <c r="D136" t="s">
-        <v>873</v>
-      </c>
-      <c r="L136" t="s">
+      <c r="B137" t="s">
+        <v>508</v>
+      </c>
+      <c r="C137" t="s">
+        <v>508</v>
+      </c>
+      <c r="D137" t="s">
+        <v>865</v>
+      </c>
+      <c r="L137" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
-      <c r="A137" t="s">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
         <v>510</v>
       </c>
-      <c r="B137" t="s">
-        <v>510</v>
-      </c>
-      <c r="C137" t="s">
-        <v>510</v>
-      </c>
-      <c r="D137" t="s">
-        <v>874</v>
-      </c>
-      <c r="L137" t="s">
+      <c r="B138" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="138" spans="1:12">
-      <c r="A138" t="s">
+      <c r="C138" t="s">
         <v>512</v>
       </c>
-      <c r="B138" t="s">
+      <c r="D138" t="s">
         <v>513</v>
       </c>
-      <c r="C138" t="s">
+      <c r="L138" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
         <v>514</v>
       </c>
-      <c r="D138" t="s">
+      <c r="B139" t="s">
         <v>515</v>
       </c>
-      <c r="L138" t="s">
+      <c r="C139" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="139" spans="1:12">
-      <c r="A139" t="s">
+      <c r="D139" t="s">
         <v>516</v>
       </c>
-      <c r="B139" t="s">
+      <c r="L139" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
         <v>517</v>
       </c>
-      <c r="C139" t="s">
-        <v>517</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="B140" t="s">
         <v>518</v>
       </c>
-      <c r="L139" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
-      <c r="A140" t="s">
+      <c r="C140" t="s">
         <v>519</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D140" t="s">
         <v>520</v>
       </c>
-      <c r="C140" t="s">
+      <c r="L140" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
         <v>521</v>
       </c>
-      <c r="D140" t="s">
+      <c r="B141" t="s">
         <v>522</v>
       </c>
-      <c r="L140" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
-      <c r="A141" t="s">
+      <c r="C141" t="s">
         <v>523</v>
       </c>
-      <c r="B141" t="s">
+      <c r="D141" t="s">
+        <v>866</v>
+      </c>
+      <c r="L141" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
         <v>524</v>
       </c>
-      <c r="C141" t="s">
+      <c r="B142" t="s">
         <v>525</v>
       </c>
-      <c r="D141" t="s">
-        <v>875</v>
-      </c>
-      <c r="L141" t="s">
+      <c r="C142" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="142" spans="1:12">
-      <c r="A142" t="s">
+      <c r="D142" t="s">
+        <v>867</v>
+      </c>
+      <c r="L142" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
         <v>527</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>528</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C143" t="s">
         <v>529</v>
       </c>
-      <c r="D142" t="s">
-        <v>876</v>
-      </c>
-      <c r="L142" t="s">
+      <c r="D143" t="s">
+        <v>868</v>
+      </c>
+      <c r="L143" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
-      <c r="A143" t="s">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
         <v>531</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>532</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>533</v>
       </c>
-      <c r="D143" t="s">
-        <v>877</v>
-      </c>
-      <c r="L143" t="s">
+      <c r="D144" t="s">
+        <v>869</v>
+      </c>
+      <c r="L144" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
-      <c r="A144" t="s">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
         <v>535</v>
-      </c>
-      <c r="B144" t="s">
-        <v>536</v>
-      </c>
-      <c r="C144" t="s">
-        <v>537</v>
-      </c>
-      <c r="D144" t="s">
-        <v>878</v>
-      </c>
-      <c r="L144" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
-      <c r="A145" t="s">
-        <v>539</v>
       </c>
       <c r="B145" t="s">
         <v>47</v>
@@ -5793,43 +5832,43 @@
         <v>49</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
+        <v>536</v>
+      </c>
+      <c r="B146" t="s">
+        <v>515</v>
+      </c>
+      <c r="C146" t="s">
+        <v>515</v>
+      </c>
+      <c r="D146" t="s">
+        <v>516</v>
+      </c>
+      <c r="L146" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>537</v>
+      </c>
+      <c r="B147" t="s">
+        <v>538</v>
+      </c>
+      <c r="C147" t="s">
+        <v>539</v>
+      </c>
+      <c r="D147" t="s">
         <v>540</v>
       </c>
-      <c r="B146" t="s">
-        <v>517</v>
-      </c>
-      <c r="C146" t="s">
-        <v>517</v>
-      </c>
-      <c r="D146" t="s">
-        <v>518</v>
-      </c>
-      <c r="L146" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" t="s">
+      <c r="L147" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
         <v>541</v>
-      </c>
-      <c r="B147" t="s">
-        <v>542</v>
-      </c>
-      <c r="C147" t="s">
-        <v>543</v>
-      </c>
-      <c r="D147" t="s">
-        <v>544</v>
-      </c>
-      <c r="L147" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" t="s">
-        <v>545</v>
       </c>
       <c r="B148" t="s">
         <v>51</v>
@@ -5838,32 +5877,32 @@
         <v>52</v>
       </c>
       <c r="D148" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="L148" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
+        <v>542</v>
+      </c>
+      <c r="B149" t="s">
+        <v>543</v>
+      </c>
+      <c r="C149" t="s">
+        <v>544</v>
+      </c>
+      <c r="D149" t="s">
+        <v>545</v>
+      </c>
+      <c r="L149" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
         <v>546</v>
-      </c>
-      <c r="B149" t="s">
-        <v>547</v>
-      </c>
-      <c r="C149" t="s">
-        <v>548</v>
-      </c>
-      <c r="D149" t="s">
-        <v>549</v>
-      </c>
-      <c r="L149" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" t="s">
-        <v>550</v>
       </c>
       <c r="B150" t="s">
         <v>43</v>
@@ -5872,1198 +5911,1198 @@
         <v>44</v>
       </c>
       <c r="D150" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="L150" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
+        <v>547</v>
+      </c>
+      <c r="B151" t="s">
+        <v>548</v>
+      </c>
+      <c r="C151" t="s">
+        <v>549</v>
+      </c>
+      <c r="D151" t="s">
+        <v>550</v>
+      </c>
+      <c r="L151" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
         <v>551</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>552</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C152" t="s">
         <v>553</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D152" t="s">
+        <v>873</v>
+      </c>
+      <c r="L152" t="s">
         <v>554</v>
       </c>
-      <c r="L151" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" t="s">
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
         <v>555</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>556</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
         <v>557</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D153" t="s">
+        <v>872</v>
+      </c>
+      <c r="L153" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>559</v>
+      </c>
+      <c r="B154" t="s">
+        <v>560</v>
+      </c>
+      <c r="C154" t="s">
+        <v>561</v>
+      </c>
+      <c r="D154" t="s">
+        <v>874</v>
+      </c>
+      <c r="L154" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>563</v>
+      </c>
+      <c r="B155" t="s">
+        <v>564</v>
+      </c>
+      <c r="C155" t="s">
+        <v>565</v>
+      </c>
+      <c r="D155" t="s">
+        <v>566</v>
+      </c>
+      <c r="L155" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>567</v>
+      </c>
+      <c r="B156" t="s">
+        <v>568</v>
+      </c>
+      <c r="C156" t="s">
+        <v>569</v>
+      </c>
+      <c r="D156" t="s">
+        <v>875</v>
+      </c>
+      <c r="L156" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>571</v>
+      </c>
+      <c r="B157" t="s">
+        <v>572</v>
+      </c>
+      <c r="C157" t="s">
+        <v>573</v>
+      </c>
+      <c r="D157" t="s">
+        <v>876</v>
+      </c>
+      <c r="L157" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>575</v>
+      </c>
+      <c r="B158" t="s">
+        <v>576</v>
+      </c>
+      <c r="C158" t="s">
+        <v>577</v>
+      </c>
+      <c r="D158" t="s">
+        <v>877</v>
+      </c>
+      <c r="L158" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>579</v>
+      </c>
+      <c r="B159" t="s">
+        <v>580</v>
+      </c>
+      <c r="C159" t="s">
+        <v>581</v>
+      </c>
+      <c r="D159" t="s">
+        <v>582</v>
+      </c>
+      <c r="L159" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>583</v>
+      </c>
+      <c r="B160" t="s">
+        <v>584</v>
+      </c>
+      <c r="C160" t="s">
+        <v>585</v>
+      </c>
+      <c r="D160" t="s">
+        <v>586</v>
+      </c>
+      <c r="L160" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>587</v>
+      </c>
+      <c r="B161" t="s">
+        <v>588</v>
+      </c>
+      <c r="C161" t="s">
+        <v>589</v>
+      </c>
+      <c r="D161" t="s">
+        <v>590</v>
+      </c>
+      <c r="L161" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>591</v>
+      </c>
+      <c r="B162" t="s">
+        <v>592</v>
+      </c>
+      <c r="C162" t="s">
+        <v>593</v>
+      </c>
+      <c r="D162" t="s">
+        <v>594</v>
+      </c>
+      <c r="L162" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>595</v>
+      </c>
+      <c r="B163" t="s">
+        <v>596</v>
+      </c>
+      <c r="C163" t="s">
+        <v>597</v>
+      </c>
+      <c r="D163" t="s">
+        <v>598</v>
+      </c>
+      <c r="L163" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>599</v>
+      </c>
+      <c r="B164" t="s">
+        <v>600</v>
+      </c>
+      <c r="C164" t="s">
+        <v>601</v>
+      </c>
+      <c r="D164" t="s">
+        <v>602</v>
+      </c>
+      <c r="L164" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>603</v>
+      </c>
+      <c r="B165" t="s">
+        <v>604</v>
+      </c>
+      <c r="C165" t="s">
+        <v>605</v>
+      </c>
+      <c r="D165" t="s">
+        <v>878</v>
+      </c>
+      <c r="L165" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>607</v>
+      </c>
+      <c r="B166" t="s">
+        <v>608</v>
+      </c>
+      <c r="C166" t="s">
+        <v>609</v>
+      </c>
+      <c r="D166" t="s">
+        <v>610</v>
+      </c>
+      <c r="L166" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>611</v>
+      </c>
+      <c r="B167" t="s">
+        <v>612</v>
+      </c>
+      <c r="C167" t="s">
+        <v>613</v>
+      </c>
+      <c r="D167" t="s">
+        <v>614</v>
+      </c>
+      <c r="L167" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>615</v>
+      </c>
+      <c r="B168" t="s">
+        <v>616</v>
+      </c>
+      <c r="C168" t="s">
+        <v>617</v>
+      </c>
+      <c r="D168" t="s">
+        <v>618</v>
+      </c>
+      <c r="L168" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>619</v>
+      </c>
+      <c r="B169" t="s">
+        <v>620</v>
+      </c>
+      <c r="C169" t="s">
+        <v>621</v>
+      </c>
+      <c r="D169" t="s">
+        <v>622</v>
+      </c>
+      <c r="L169" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>623</v>
+      </c>
+      <c r="B170" t="s">
+        <v>624</v>
+      </c>
+      <c r="C170" t="s">
+        <v>625</v>
+      </c>
+      <c r="D170" t="s">
+        <v>626</v>
+      </c>
+      <c r="L170" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>627</v>
+      </c>
+      <c r="B171" t="s">
+        <v>515</v>
+      </c>
+      <c r="C171" t="s">
+        <v>515</v>
+      </c>
+      <c r="D171" t="s">
+        <v>516</v>
+      </c>
+      <c r="L171" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>628</v>
+      </c>
+      <c r="B172" t="s">
+        <v>629</v>
+      </c>
+      <c r="C172" t="s">
+        <v>630</v>
+      </c>
+      <c r="D172" t="s">
+        <v>631</v>
+      </c>
+      <c r="L172" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>632</v>
+      </c>
+      <c r="B173" t="s">
+        <v>633</v>
+      </c>
+      <c r="C173" t="s">
+        <v>634</v>
+      </c>
+      <c r="D173" t="s">
+        <v>635</v>
+      </c>
+      <c r="L173" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>636</v>
+      </c>
+      <c r="B174" t="s">
+        <v>637</v>
+      </c>
+      <c r="C174" t="s">
+        <v>638</v>
+      </c>
+      <c r="D174" t="s">
+        <v>879</v>
+      </c>
+      <c r="L174" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>640</v>
+      </c>
+      <c r="B175" t="s">
+        <v>641</v>
+      </c>
+      <c r="C175" t="s">
+        <v>642</v>
+      </c>
+      <c r="D175" t="s">
+        <v>898</v>
+      </c>
+      <c r="L175" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>644</v>
+      </c>
+      <c r="B176" t="s">
+        <v>645</v>
+      </c>
+      <c r="C176" t="s">
+        <v>646</v>
+      </c>
+      <c r="D176" t="s">
+        <v>899</v>
+      </c>
+      <c r="L176" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>648</v>
+      </c>
+      <c r="B177" t="s">
+        <v>649</v>
+      </c>
+      <c r="C177" t="s">
+        <v>650</v>
+      </c>
+      <c r="D177" t="s">
+        <v>900</v>
+      </c>
+      <c r="L177" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>652</v>
+      </c>
+      <c r="B178" t="s">
+        <v>653</v>
+      </c>
+      <c r="C178" t="s">
+        <v>654</v>
+      </c>
+      <c r="D178" t="s">
+        <v>897</v>
+      </c>
+      <c r="L178" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>656</v>
+      </c>
+      <c r="B179" t="s">
+        <v>657</v>
+      </c>
+      <c r="C179" t="s">
+        <v>658</v>
+      </c>
+      <c r="D179" t="s">
+        <v>896</v>
+      </c>
+      <c r="L179" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>660</v>
+      </c>
+      <c r="B180" t="s">
+        <v>661</v>
+      </c>
+      <c r="C180" t="s">
+        <v>662</v>
+      </c>
+      <c r="D180" t="s">
+        <v>895</v>
+      </c>
+      <c r="L180" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>664</v>
+      </c>
+      <c r="B181" t="s">
+        <v>665</v>
+      </c>
+      <c r="C181" t="s">
+        <v>666</v>
+      </c>
+      <c r="D181" t="s">
+        <v>894</v>
+      </c>
+      <c r="L181" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>668</v>
+      </c>
+      <c r="B182" t="s">
+        <v>669</v>
+      </c>
+      <c r="C182" t="s">
+        <v>670</v>
+      </c>
+      <c r="D182" t="s">
+        <v>893</v>
+      </c>
+      <c r="L182" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>672</v>
+      </c>
+      <c r="B183" t="s">
+        <v>673</v>
+      </c>
+      <c r="C183" t="s">
+        <v>674</v>
+      </c>
+      <c r="D183" t="s">
+        <v>901</v>
+      </c>
+      <c r="L183" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>676</v>
+      </c>
+      <c r="B184" t="s">
+        <v>677</v>
+      </c>
+      <c r="C184" t="s">
+        <v>678</v>
+      </c>
+      <c r="D184" t="s">
+        <v>905</v>
+      </c>
+      <c r="L184" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>680</v>
+      </c>
+      <c r="B185" t="s">
+        <v>681</v>
+      </c>
+      <c r="C185" t="s">
+        <v>682</v>
+      </c>
+      <c r="D185" t="s">
+        <v>904</v>
+      </c>
+      <c r="L185" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>684</v>
+      </c>
+      <c r="B186" t="s">
+        <v>685</v>
+      </c>
+      <c r="C186" t="s">
+        <v>686</v>
+      </c>
+      <c r="D186" t="s">
+        <v>903</v>
+      </c>
+      <c r="L186" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>688</v>
+      </c>
+      <c r="B187" t="s">
+        <v>689</v>
+      </c>
+      <c r="C187" t="s">
+        <v>690</v>
+      </c>
+      <c r="D187" t="s">
+        <v>902</v>
+      </c>
+      <c r="L187" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>692</v>
+      </c>
+      <c r="B188" t="s">
+        <v>693</v>
+      </c>
+      <c r="C188" t="s">
+        <v>694</v>
+      </c>
+      <c r="D188" t="s">
+        <v>906</v>
+      </c>
+      <c r="L188" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>696</v>
+      </c>
+      <c r="B189" t="s">
+        <v>697</v>
+      </c>
+      <c r="C189" t="s">
+        <v>698</v>
+      </c>
+      <c r="D189" t="s">
+        <v>911</v>
+      </c>
+      <c r="L189" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>699</v>
+      </c>
+      <c r="B190" t="s">
+        <v>700</v>
+      </c>
+      <c r="C190" t="s">
+        <v>701</v>
+      </c>
+      <c r="D190" t="s">
+        <v>908</v>
+      </c>
+      <c r="L190" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>702</v>
+      </c>
+      <c r="B191" t="s">
+        <v>703</v>
+      </c>
+      <c r="C191" t="s">
+        <v>704</v>
+      </c>
+      <c r="D191" t="s">
+        <v>705</v>
+      </c>
+      <c r="L191" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>706</v>
+      </c>
+      <c r="B192" t="s">
+        <v>707</v>
+      </c>
+      <c r="C192" t="s">
+        <v>708</v>
+      </c>
+      <c r="D192" t="s">
+        <v>709</v>
+      </c>
+      <c r="L192" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>710</v>
+      </c>
+      <c r="B193" t="s">
+        <v>710</v>
+      </c>
+      <c r="C193" t="s">
+        <v>711</v>
+      </c>
+      <c r="D193" t="s">
+        <v>712</v>
+      </c>
+      <c r="L193" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>713</v>
+      </c>
+      <c r="B194" t="s">
+        <v>714</v>
+      </c>
+      <c r="C194" t="s">
+        <v>715</v>
+      </c>
+      <c r="D194" t="s">
+        <v>545</v>
+      </c>
+      <c r="L194" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>716</v>
+      </c>
+      <c r="B195" t="s">
+        <v>717</v>
+      </c>
+      <c r="C195" t="s">
+        <v>718</v>
+      </c>
+      <c r="D195" t="s">
+        <v>719</v>
+      </c>
+      <c r="L195" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>720</v>
+      </c>
+      <c r="B196" t="s">
+        <v>721</v>
+      </c>
+      <c r="C196" t="s">
+        <v>722</v>
+      </c>
+      <c r="D196" t="s">
+        <v>723</v>
+      </c>
+      <c r="L196" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>724</v>
+      </c>
+      <c r="B197" t="s">
+        <v>724</v>
+      </c>
+      <c r="C197" t="s">
+        <v>724</v>
+      </c>
+      <c r="D197" t="s">
+        <v>725</v>
+      </c>
+      <c r="L197" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>726</v>
+      </c>
+      <c r="B198" t="s">
+        <v>727</v>
+      </c>
+      <c r="C198" t="s">
+        <v>726</v>
+      </c>
+      <c r="D198" t="s">
+        <v>880</v>
+      </c>
+      <c r="L198" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>729</v>
+      </c>
+      <c r="B199" t="s">
+        <v>730</v>
+      </c>
+      <c r="C199" t="s">
+        <v>731</v>
+      </c>
+      <c r="D199" t="s">
+        <v>732</v>
+      </c>
+      <c r="L199" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>733</v>
+      </c>
+      <c r="B200" t="s">
+        <v>734</v>
+      </c>
+      <c r="C200" t="s">
+        <v>735</v>
+      </c>
+      <c r="D200" t="s">
+        <v>736</v>
+      </c>
+      <c r="L200" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>737</v>
+      </c>
+      <c r="B201" t="s">
+        <v>738</v>
+      </c>
+      <c r="C201" t="s">
+        <v>739</v>
+      </c>
+      <c r="D201" t="s">
+        <v>916</v>
+      </c>
+      <c r="L201" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>740</v>
+      </c>
+      <c r="B202" t="s">
+        <v>741</v>
+      </c>
+      <c r="C202" t="s">
+        <v>742</v>
+      </c>
+      <c r="D202" t="s">
+        <v>921</v>
+      </c>
+      <c r="L202" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
+        <v>744</v>
+      </c>
+      <c r="B203" t="s">
+        <v>745</v>
+      </c>
+      <c r="C203" t="s">
+        <v>746</v>
+      </c>
+      <c r="D203" t="s">
+        <v>920</v>
+      </c>
+      <c r="L203" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>748</v>
+      </c>
+      <c r="B204" t="s">
+        <v>749</v>
+      </c>
+      <c r="C204" t="s">
+        <v>750</v>
+      </c>
+      <c r="D204" t="s">
+        <v>919</v>
+      </c>
+      <c r="L204" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>752</v>
+      </c>
+      <c r="B205" t="s">
+        <v>753</v>
+      </c>
+      <c r="C205" t="s">
+        <v>754</v>
+      </c>
+      <c r="D205" t="s">
+        <v>892</v>
+      </c>
+      <c r="L205" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
+        <v>756</v>
+      </c>
+      <c r="B206" t="s">
+        <v>757</v>
+      </c>
+      <c r="C206" t="s">
+        <v>758</v>
+      </c>
+      <c r="D206" t="s">
+        <v>759</v>
+      </c>
+      <c r="L206" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>760</v>
+      </c>
+      <c r="B207" t="s">
+        <v>761</v>
+      </c>
+      <c r="C207" t="s">
+        <v>762</v>
+      </c>
+      <c r="D207" t="s">
+        <v>763</v>
+      </c>
+      <c r="L207" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
+        <v>764</v>
+      </c>
+      <c r="B208" t="s">
+        <v>765</v>
+      </c>
+      <c r="C208" t="s">
+        <v>766</v>
+      </c>
+      <c r="D208" t="s">
+        <v>881</v>
+      </c>
+      <c r="L208" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
+        <v>768</v>
+      </c>
+      <c r="B209" t="s">
+        <v>769</v>
+      </c>
+      <c r="C209" t="s">
+        <v>770</v>
+      </c>
+      <c r="D209" t="s">
+        <v>771</v>
+      </c>
+      <c r="L209" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>772</v>
+      </c>
+      <c r="B210" t="s">
+        <v>773</v>
+      </c>
+      <c r="C210" t="s">
+        <v>774</v>
+      </c>
+      <c r="D210" t="s">
+        <v>891</v>
+      </c>
+      <c r="L210" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>776</v>
+      </c>
+      <c r="B211" t="s">
+        <v>777</v>
+      </c>
+      <c r="C211" t="s">
+        <v>778</v>
+      </c>
+      <c r="D211" t="s">
         <v>882</v>
       </c>
-      <c r="L152" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="A153" t="s">
-        <v>559</v>
-      </c>
-      <c r="B153" t="s">
-        <v>560</v>
-      </c>
-      <c r="C153" t="s">
-        <v>561</v>
-      </c>
-      <c r="D153" t="s">
-        <v>881</v>
-      </c>
-      <c r="L153" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
-      <c r="A154" t="s">
-        <v>563</v>
-      </c>
-      <c r="B154" t="s">
-        <v>564</v>
-      </c>
-      <c r="C154" t="s">
-        <v>565</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="L211" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
+        <v>780</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="C212" t="s">
+        <v>781</v>
+      </c>
+      <c r="D212" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="L154" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="A155" t="s">
-        <v>567</v>
-      </c>
-      <c r="B155" t="s">
-        <v>568</v>
-      </c>
-      <c r="C155" t="s">
-        <v>569</v>
-      </c>
-      <c r="D155" t="s">
-        <v>570</v>
-      </c>
-      <c r="L155" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
-      <c r="A156" t="s">
-        <v>571</v>
-      </c>
-      <c r="B156" t="s">
-        <v>572</v>
-      </c>
-      <c r="C156" t="s">
-        <v>573</v>
-      </c>
-      <c r="D156" t="s">
-        <v>884</v>
-      </c>
-      <c r="L156" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
-      <c r="A157" t="s">
-        <v>575</v>
-      </c>
-      <c r="B157" t="s">
-        <v>576</v>
-      </c>
-      <c r="C157" t="s">
-        <v>577</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="L212" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>783</v>
+      </c>
+      <c r="B213" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="L157" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
-      <c r="A158" t="s">
-        <v>579</v>
-      </c>
-      <c r="B158" t="s">
-        <v>580</v>
-      </c>
-      <c r="C158" t="s">
-        <v>581</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="C213" t="s">
+        <v>784</v>
+      </c>
+      <c r="D213" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="L158" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
-      <c r="A159" t="s">
-        <v>583</v>
-      </c>
-      <c r="B159" t="s">
-        <v>584</v>
-      </c>
-      <c r="C159" t="s">
-        <v>585</v>
-      </c>
-      <c r="D159" t="s">
-        <v>586</v>
-      </c>
-      <c r="L159" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
-      <c r="A160" t="s">
-        <v>587</v>
-      </c>
-      <c r="B160" t="s">
-        <v>588</v>
-      </c>
-      <c r="C160" t="s">
-        <v>589</v>
-      </c>
-      <c r="D160" t="s">
-        <v>590</v>
-      </c>
-      <c r="L160" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
-      <c r="A161" t="s">
-        <v>591</v>
-      </c>
-      <c r="B161" t="s">
-        <v>592</v>
-      </c>
-      <c r="C161" t="s">
-        <v>593</v>
-      </c>
-      <c r="D161" t="s">
-        <v>594</v>
-      </c>
-      <c r="L161" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
-      <c r="A162" t="s">
-        <v>595</v>
-      </c>
-      <c r="B162" t="s">
-        <v>596</v>
-      </c>
-      <c r="C162" t="s">
-        <v>597</v>
-      </c>
-      <c r="D162" t="s">
-        <v>598</v>
-      </c>
-      <c r="L162" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
-      <c r="A163" t="s">
-        <v>599</v>
-      </c>
-      <c r="B163" t="s">
-        <v>600</v>
-      </c>
-      <c r="C163" t="s">
-        <v>601</v>
-      </c>
-      <c r="D163" t="s">
-        <v>602</v>
-      </c>
-      <c r="L163" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12">
-      <c r="A164" t="s">
-        <v>603</v>
-      </c>
-      <c r="B164" t="s">
-        <v>604</v>
-      </c>
-      <c r="C164" t="s">
-        <v>605</v>
-      </c>
-      <c r="D164" t="s">
-        <v>606</v>
-      </c>
-      <c r="L164" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12">
-      <c r="A165" t="s">
-        <v>607</v>
-      </c>
-      <c r="B165" t="s">
-        <v>608</v>
-      </c>
-      <c r="C165" t="s">
-        <v>609</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="L213" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
+        <v>786</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="C214" t="s">
+        <v>787</v>
+      </c>
+      <c r="D214" t="s">
+        <v>917</v>
+      </c>
+      <c r="L214" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
+        <v>788</v>
+      </c>
+      <c r="B215" t="s">
+        <v>789</v>
+      </c>
+      <c r="C215" t="s">
+        <v>790</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A216" t="s">
+        <v>791</v>
+      </c>
+      <c r="B216" t="s">
+        <v>792</v>
+      </c>
+      <c r="C216" t="s">
+        <v>793</v>
+      </c>
+      <c r="D216" t="s">
+        <v>794</v>
+      </c>
+      <c r="L216" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>795</v>
+      </c>
+      <c r="B217" t="s">
+        <v>888</v>
+      </c>
+      <c r="D217" t="s">
+        <v>889</v>
+      </c>
+      <c r="L217" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" ht="135" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>797</v>
+      </c>
+      <c r="B218" t="s">
+        <v>798</v>
+      </c>
+      <c r="D218" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="L165" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12">
-      <c r="A166" t="s">
-        <v>611</v>
-      </c>
-      <c r="B166" t="s">
-        <v>612</v>
-      </c>
-      <c r="C166" t="s">
-        <v>613</v>
-      </c>
-      <c r="D166" t="s">
-        <v>614</v>
-      </c>
-      <c r="L166" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
-      <c r="A167" t="s">
-        <v>615</v>
-      </c>
-      <c r="B167" t="s">
-        <v>616</v>
-      </c>
-      <c r="C167" t="s">
-        <v>617</v>
-      </c>
-      <c r="D167" t="s">
-        <v>618</v>
-      </c>
-      <c r="L167" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
-      <c r="A168" t="s">
-        <v>619</v>
-      </c>
-      <c r="B168" t="s">
-        <v>620</v>
-      </c>
-      <c r="C168" t="s">
-        <v>621</v>
-      </c>
-      <c r="D168" t="s">
-        <v>622</v>
-      </c>
-      <c r="L168" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12">
-      <c r="A169" t="s">
-        <v>623</v>
-      </c>
-      <c r="B169" t="s">
-        <v>624</v>
-      </c>
-      <c r="C169" t="s">
-        <v>625</v>
-      </c>
-      <c r="D169" t="s">
-        <v>626</v>
-      </c>
-      <c r="L169" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12">
-      <c r="A170" t="s">
-        <v>627</v>
-      </c>
-      <c r="B170" t="s">
-        <v>628</v>
-      </c>
-      <c r="C170" t="s">
-        <v>629</v>
-      </c>
-      <c r="D170" t="s">
-        <v>630</v>
-      </c>
-      <c r="L170" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12">
-      <c r="A171" t="s">
-        <v>631</v>
-      </c>
-      <c r="B171" t="s">
-        <v>517</v>
-      </c>
-      <c r="C171" t="s">
-        <v>517</v>
-      </c>
-      <c r="D171" t="s">
-        <v>518</v>
-      </c>
-      <c r="L171" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12">
-      <c r="A172" t="s">
-        <v>632</v>
-      </c>
-      <c r="B172" t="s">
-        <v>633</v>
-      </c>
-      <c r="C172" t="s">
-        <v>634</v>
-      </c>
-      <c r="D172" t="s">
-        <v>635</v>
-      </c>
-      <c r="L172" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12">
-      <c r="A173" t="s">
-        <v>636</v>
-      </c>
-      <c r="B173" t="s">
-        <v>637</v>
-      </c>
-      <c r="C173" t="s">
-        <v>638</v>
-      </c>
-      <c r="D173" t="s">
-        <v>639</v>
-      </c>
-      <c r="L173" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12">
-      <c r="A174" t="s">
-        <v>640</v>
-      </c>
-      <c r="B174" t="s">
-        <v>641</v>
-      </c>
-      <c r="C174" t="s">
-        <v>642</v>
-      </c>
-      <c r="D174" t="s">
-        <v>888</v>
-      </c>
-      <c r="L174" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
-      <c r="A175" t="s">
-        <v>644</v>
-      </c>
-      <c r="B175" t="s">
-        <v>645</v>
-      </c>
-      <c r="C175" t="s">
-        <v>646</v>
-      </c>
-      <c r="D175" t="s">
-        <v>909</v>
-      </c>
-      <c r="L175" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12">
-      <c r="A176" t="s">
-        <v>648</v>
-      </c>
-      <c r="B176" t="s">
-        <v>649</v>
-      </c>
-      <c r="C176" t="s">
-        <v>650</v>
-      </c>
-      <c r="D176" t="s">
-        <v>910</v>
-      </c>
-      <c r="L176" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12">
-      <c r="A177" t="s">
-        <v>652</v>
-      </c>
-      <c r="B177" t="s">
-        <v>653</v>
-      </c>
-      <c r="C177" t="s">
-        <v>654</v>
-      </c>
-      <c r="D177" t="s">
-        <v>911</v>
-      </c>
-      <c r="L177" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12">
-      <c r="A178" t="s">
-        <v>656</v>
-      </c>
-      <c r="B178" t="s">
-        <v>657</v>
-      </c>
-      <c r="C178" t="s">
-        <v>658</v>
-      </c>
-      <c r="D178" t="s">
-        <v>908</v>
-      </c>
-      <c r="L178" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12">
-      <c r="A179" t="s">
-        <v>660</v>
-      </c>
-      <c r="B179" t="s">
-        <v>661</v>
-      </c>
-      <c r="C179" t="s">
-        <v>662</v>
-      </c>
-      <c r="D179" t="s">
-        <v>907</v>
-      </c>
-      <c r="L179" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12">
-      <c r="A180" t="s">
-        <v>664</v>
-      </c>
-      <c r="B180" t="s">
-        <v>665</v>
-      </c>
-      <c r="C180" t="s">
-        <v>666</v>
-      </c>
-      <c r="D180" t="s">
-        <v>906</v>
-      </c>
-      <c r="L180" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12">
-      <c r="A181" t="s">
-        <v>668</v>
-      </c>
-      <c r="B181" t="s">
-        <v>669</v>
-      </c>
-      <c r="C181" t="s">
-        <v>670</v>
-      </c>
-      <c r="D181" t="s">
-        <v>905</v>
-      </c>
-      <c r="L181" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12">
-      <c r="A182" t="s">
-        <v>672</v>
-      </c>
-      <c r="B182" t="s">
-        <v>673</v>
-      </c>
-      <c r="C182" t="s">
-        <v>674</v>
-      </c>
-      <c r="D182" t="s">
-        <v>904</v>
-      </c>
-      <c r="L182" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12">
-      <c r="A183" t="s">
-        <v>676</v>
-      </c>
-      <c r="B183" t="s">
-        <v>677</v>
-      </c>
-      <c r="C183" t="s">
-        <v>678</v>
-      </c>
-      <c r="D183" t="s">
-        <v>903</v>
-      </c>
-      <c r="L183" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12">
-      <c r="A184" t="s">
-        <v>680</v>
-      </c>
-      <c r="B184" t="s">
-        <v>681</v>
-      </c>
-      <c r="C184" t="s">
-        <v>682</v>
-      </c>
-      <c r="D184" t="s">
-        <v>683</v>
-      </c>
-      <c r="L184" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12">
-      <c r="A185" t="s">
-        <v>684</v>
-      </c>
-      <c r="B185" t="s">
-        <v>685</v>
-      </c>
-      <c r="C185" t="s">
-        <v>686</v>
-      </c>
-      <c r="D185" t="s">
-        <v>687</v>
-      </c>
-      <c r="L185" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12">
-      <c r="A186" t="s">
-        <v>688</v>
-      </c>
-      <c r="B186" t="s">
-        <v>689</v>
-      </c>
-      <c r="C186" t="s">
-        <v>690</v>
-      </c>
-      <c r="D186" t="s">
-        <v>691</v>
-      </c>
-      <c r="L186" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12">
-      <c r="A187" t="s">
-        <v>692</v>
-      </c>
-      <c r="B187" t="s">
-        <v>693</v>
-      </c>
-      <c r="C187" t="s">
-        <v>694</v>
-      </c>
-      <c r="D187" t="s">
-        <v>695</v>
-      </c>
-      <c r="L187" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12">
-      <c r="A188" t="s">
-        <v>696</v>
-      </c>
-      <c r="B188" t="s">
-        <v>697</v>
-      </c>
-      <c r="C188" t="s">
-        <v>698</v>
-      </c>
-      <c r="D188" t="s">
-        <v>699</v>
-      </c>
-      <c r="L188" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12">
-      <c r="A189" t="s">
-        <v>700</v>
-      </c>
-      <c r="B189" t="s">
-        <v>701</v>
-      </c>
-      <c r="C189" t="s">
-        <v>702</v>
-      </c>
-      <c r="D189" t="s">
-        <v>703</v>
-      </c>
-      <c r="L189" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12">
-      <c r="A190" t="s">
-        <v>704</v>
-      </c>
-      <c r="B190" t="s">
-        <v>705</v>
-      </c>
-      <c r="C190" t="s">
-        <v>706</v>
-      </c>
-      <c r="D190" t="s">
-        <v>707</v>
-      </c>
-      <c r="L190" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12">
-      <c r="A191" t="s">
-        <v>708</v>
-      </c>
-      <c r="B191" t="s">
-        <v>709</v>
-      </c>
-      <c r="C191" t="s">
-        <v>710</v>
-      </c>
-      <c r="D191" t="s">
-        <v>711</v>
-      </c>
-      <c r="L191" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12">
-      <c r="A192" t="s">
-        <v>712</v>
-      </c>
-      <c r="B192" t="s">
-        <v>713</v>
-      </c>
-      <c r="C192" t="s">
-        <v>714</v>
-      </c>
-      <c r="D192" t="s">
-        <v>715</v>
-      </c>
-      <c r="L192" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12">
-      <c r="A193" t="s">
-        <v>716</v>
-      </c>
-      <c r="B193" t="s">
-        <v>716</v>
-      </c>
-      <c r="C193" t="s">
-        <v>717</v>
-      </c>
-      <c r="D193" t="s">
-        <v>718</v>
-      </c>
-      <c r="L193" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12">
-      <c r="A194" t="s">
-        <v>719</v>
-      </c>
-      <c r="B194" t="s">
-        <v>720</v>
-      </c>
-      <c r="C194" t="s">
-        <v>721</v>
-      </c>
-      <c r="D194" t="s">
-        <v>549</v>
-      </c>
-      <c r="L194" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12">
-      <c r="A195" t="s">
-        <v>722</v>
-      </c>
-      <c r="B195" t="s">
-        <v>723</v>
-      </c>
-      <c r="C195" t="s">
-        <v>724</v>
-      </c>
-      <c r="D195" t="s">
-        <v>725</v>
-      </c>
-      <c r="L195" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12">
-      <c r="A196" t="s">
-        <v>726</v>
-      </c>
-      <c r="B196" t="s">
-        <v>727</v>
-      </c>
-      <c r="C196" t="s">
-        <v>728</v>
-      </c>
-      <c r="D196" t="s">
-        <v>729</v>
-      </c>
-      <c r="L196" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12">
-      <c r="A197" t="s">
-        <v>730</v>
-      </c>
-      <c r="B197" t="s">
-        <v>730</v>
-      </c>
-      <c r="C197" t="s">
-        <v>730</v>
-      </c>
-      <c r="D197" t="s">
-        <v>731</v>
-      </c>
-      <c r="L197" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12">
-      <c r="A198" t="s">
-        <v>732</v>
-      </c>
-      <c r="B198" t="s">
-        <v>733</v>
-      </c>
-      <c r="C198" t="s">
-        <v>732</v>
-      </c>
-      <c r="D198" t="s">
-        <v>889</v>
-      </c>
-      <c r="L198" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12">
-      <c r="A199" t="s">
-        <v>735</v>
-      </c>
-      <c r="B199" t="s">
-        <v>736</v>
-      </c>
-      <c r="C199" t="s">
-        <v>737</v>
-      </c>
-      <c r="D199" t="s">
-        <v>738</v>
-      </c>
-      <c r="L199" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12">
-      <c r="A200" t="s">
-        <v>739</v>
-      </c>
-      <c r="B200" t="s">
-        <v>740</v>
-      </c>
-      <c r="C200" t="s">
-        <v>741</v>
-      </c>
-      <c r="D200" t="s">
-        <v>742</v>
-      </c>
-      <c r="L200" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12">
-      <c r="A201" t="s">
-        <v>743</v>
-      </c>
-      <c r="B201" t="s">
-        <v>744</v>
-      </c>
-      <c r="C201" t="s">
-        <v>745</v>
-      </c>
-      <c r="D201" t="s">
-        <v>746</v>
-      </c>
-      <c r="L201" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12">
-      <c r="A202" t="s">
-        <v>747</v>
-      </c>
-      <c r="B202" t="s">
-        <v>748</v>
-      </c>
-      <c r="C202" t="s">
-        <v>749</v>
-      </c>
-      <c r="D202" t="s">
-        <v>750</v>
-      </c>
-      <c r="L202" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12">
-      <c r="A203" t="s">
-        <v>751</v>
-      </c>
-      <c r="B203" t="s">
-        <v>752</v>
-      </c>
-      <c r="C203" t="s">
-        <v>753</v>
-      </c>
-      <c r="D203" t="s">
-        <v>754</v>
-      </c>
-      <c r="L203" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12">
-      <c r="A204" t="s">
-        <v>755</v>
-      </c>
-      <c r="B204" t="s">
-        <v>756</v>
-      </c>
-      <c r="C204" t="s">
-        <v>757</v>
-      </c>
-      <c r="D204" t="s">
-        <v>758</v>
-      </c>
-      <c r="L204" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12">
-      <c r="A205" t="s">
-        <v>759</v>
-      </c>
-      <c r="B205" t="s">
-        <v>760</v>
-      </c>
-      <c r="C205" t="s">
-        <v>761</v>
-      </c>
-      <c r="D205" t="s">
-        <v>902</v>
-      </c>
-      <c r="L205" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12">
-      <c r="A206" t="s">
-        <v>763</v>
-      </c>
-      <c r="B206" t="s">
-        <v>764</v>
-      </c>
-      <c r="C206" t="s">
-        <v>765</v>
-      </c>
-      <c r="D206" t="s">
-        <v>766</v>
-      </c>
-      <c r="L206" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12">
-      <c r="A207" t="s">
-        <v>767</v>
-      </c>
-      <c r="B207" t="s">
-        <v>768</v>
-      </c>
-      <c r="C207" t="s">
-        <v>769</v>
-      </c>
-      <c r="D207" t="s">
-        <v>770</v>
-      </c>
-      <c r="L207" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12">
-      <c r="A208" t="s">
-        <v>771</v>
-      </c>
-      <c r="B208" t="s">
-        <v>772</v>
-      </c>
-      <c r="C208" t="s">
-        <v>773</v>
-      </c>
-      <c r="D208" t="s">
-        <v>890</v>
-      </c>
-      <c r="L208" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12">
-      <c r="A209" t="s">
-        <v>775</v>
-      </c>
-      <c r="B209" t="s">
-        <v>776</v>
-      </c>
-      <c r="C209" t="s">
-        <v>777</v>
-      </c>
-      <c r="D209" t="s">
-        <v>778</v>
-      </c>
-      <c r="L209" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12">
-      <c r="A210" t="s">
-        <v>779</v>
-      </c>
-      <c r="B210" t="s">
-        <v>780</v>
-      </c>
-      <c r="C210" t="s">
-        <v>781</v>
-      </c>
-      <c r="D210" t="s">
-        <v>901</v>
-      </c>
-      <c r="L210" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12">
-      <c r="A211" t="s">
-        <v>783</v>
-      </c>
-      <c r="B211" t="s">
-        <v>784</v>
-      </c>
-      <c r="C211" t="s">
-        <v>785</v>
-      </c>
-      <c r="D211" t="s">
-        <v>891</v>
-      </c>
-      <c r="L211" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" ht="27">
-      <c r="A212" t="s">
-        <v>787</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="C212" t="s">
-        <v>788</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="L212" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" ht="40.5">
-      <c r="A213" t="s">
-        <v>790</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="C213" t="s">
-        <v>791</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="L213" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" ht="27">
-      <c r="A214" t="s">
-        <v>793</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="C214" t="s">
-        <v>794</v>
-      </c>
-      <c r="D214" t="s">
-        <v>900</v>
-      </c>
-      <c r="L214" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12">
-      <c r="A215" t="s">
-        <v>796</v>
-      </c>
-      <c r="B215" t="s">
-        <v>797</v>
-      </c>
-      <c r="C215" t="s">
-        <v>798</v>
-      </c>
-      <c r="D215" t="s">
+      <c r="L218" t="s">
         <v>799</v>
       </c>
-      <c r="L215" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12">
-      <c r="A216" t="s">
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B222" t="s">
         <v>800</v>
       </c>
-      <c r="B216" t="s">
+      <c r="D222" t="s">
         <v>801</v>
       </c>
-      <c r="C216" t="s">
+      <c r="L222" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B223" t="s">
         <v>802</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D223" t="s">
         <v>803</v>
       </c>
-      <c r="L216" t="s">
+      <c r="L223" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
-      <c r="A217" t="s">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B224" t="s">
         <v>804</v>
       </c>
-      <c r="B217" t="s">
-        <v>897</v>
-      </c>
-      <c r="D217" t="s">
-        <v>898</v>
-      </c>
-      <c r="L217" t="s">
+      <c r="D224" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" ht="135">
-      <c r="A218" t="s">
+      <c r="L224" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B225" t="s">
         <v>806</v>
-      </c>
-      <c r="B218" t="s">
-        <v>807</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="L218" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12">
-      <c r="B222" t="s">
-        <v>809</v>
-      </c>
-      <c r="D222" t="s">
-        <v>810</v>
-      </c>
-      <c r="L222" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12">
-      <c r="B223" t="s">
-        <v>811</v>
-      </c>
-      <c r="D223" t="s">
-        <v>812</v>
-      </c>
-      <c r="L223" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12">
-      <c r="B224" t="s">
-        <v>813</v>
-      </c>
-      <c r="D224" t="s">
-        <v>814</v>
-      </c>
-      <c r="L224" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="225" spans="2:12">
-      <c r="B225" t="s">
-        <v>815</v>
       </c>
       <c r="D225" t="s">
         <v>33</v>
@@ -7072,37 +7111,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="226" spans="2:12">
+    <row r="226" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B226" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D226" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="L226" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="227" spans="2:12">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B227" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="D227" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="L227" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="228" spans="2:12">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B228" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="D228" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="L228" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -7113,16 +7152,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -7131,52 +7170,52 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="B2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="B3" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="B5" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="B6" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="B7" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>

--- a/Localization_translated.xlsx
+++ b/Localization_translated.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qsefthuopq\Documents\GitHub\personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB03588\Downloads\personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651BFEF1-7656-437B-ABDC-B75CE28B15EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="23025" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="23025" windowHeight="11715"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="931">
   <si>
     <t>key</t>
   </si>
@@ -2396,10 +2395,6 @@
     <t>ui_cutscene_intro_d</t>
   </si>
   <si>
-    <t>The towers are holding strong, but for how long?
-The machine army evolves.</t>
-  </si>
-  <si>
     <t>Kuleler şimdilik dayanıyor, ama nereye kadar?
 Makine ordusu devamlı kendini yeniliyor.</t>
   </si>
@@ -2429,6 +2424,522 @@
   </si>
   <si>
     <t>store_about_game</t>
+  </si>
+  <si>
+    <t>//本试玩版包含总计25个关卡中的前5关，以及技能树的初期内容。
+//选定关卡后，将炮塔火力瞄准来袭敌军。轰！记得拾取敌人掉落的所有珍贵资源。
+//炮塔终将陷落。但在您的指挥下，它必将以更强姿态重生。通过武器与强化模块巩固防御工事。
+//研发日新月异的尖端科技。
+//坚守堡垒至最后一刻。您与武器研发计划是人类对抗机械军团的最后防线。这场孤注一掷的行动能否延续人类文明？当敌军洪流势不可挡之时，又将发生怎样的故事？</t>
+  </si>
+  <si>
+    <t>NOTES TO TRANSLATOR</t>
+  </si>
+  <si>
+    <t>译者注</t>
+  </si>
+  <si>
+    <t>Please localize the yellow highlighted cells only.</t>
+  </si>
+  <si>
+    <t>请仅对黄色高亮单元格进行本地化处理。</t>
+  </si>
+  <si>
+    <t>Please use the column of your language to insert the localization.</t>
+  </si>
+  <si>
+    <t>请使用对应语言栏位填写本地化内容。</t>
+  </si>
+  <si>
+    <t>Since this is a game localization project, your maximum effort on ensuring the language to sound as natural and as suitable as the game's requirement will be very much appreciated.</t>
+  </si>
+  <si>
+    <t>Please do not delete any rows or columns from the file. If you remove the filtering you will see some red highlighted rows, which will not be translated. We will only translate the yellow highlighted cells.</t>
+  </si>
+  <si>
+    <t>请勿删除文件中的任何行或列。若取消筛选，您将看到部分标红高亮的行，这些内容无需翻译。我们仅翻译黄色高亮的单元格。</t>
+  </si>
+  <si>
+    <t>If you need, please request the demo from me.</t>
+  </si>
+  <si>
+    <t>如需试玩，请向我索取演示版。</t>
+  </si>
+  <si>
+    <t>Thank you! :)</t>
+  </si>
+  <si>
+    <t>感谢！ ：）</t>
+  </si>
+  <si>
+    <t>zh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简体中文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本游戏包含可能诱发癫痫发作或导致光敏性癫痫患者不适的视觉特效。请谨慎观看。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请按任意键继续</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹珠机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主音量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准星显示冷却</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已摧毁精英数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已摧毁精英武器数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总览</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destroyed targets breakdown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已摧毁目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空袭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转锯刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切割者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣一支自动索敌的轰炸机编队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向随机选定目标发射巨型激光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>围绕准星旋转生成巨型圆锯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向塔周围射出一圈射弹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮弹落点将形成持续燃烧的火场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从塔上发射一道不断扩散的死亡冲击波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间结束时，切割者将召唤巨型鲨鱼吞噬该区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在塔周围生成可再生的防护层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射轨道激光至随机位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成掉落宝物的皮纳塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁能力：从摧毁敌人和精英武器中提取处理器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁强化：可使用勋章购买强力特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁弹珠机：可获取柏青币的弹珠机模拟程序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlocks PachinEmu, the pachinko emulator that grants Pachinkoins</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币倍率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>球体倍率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>球体值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Bumper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加缓冲器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲撞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘟哝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探求者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁{0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级{0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摧毁{0}个{1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉动弹珠杆{0}次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得{0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成第{0}关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成{0}个关卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成{0}项任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁莽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计花费{0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜！您已通关试玩版。若想获取完整版上线通知，请将本游戏添加至Steam愿望单。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球
+机械浩劫数月之后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth
+A few months after the machine armageddon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal armadas,
+stretching all the way to the horizon,
+wage war against humanity.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属舰队，
+横贯天际，
+向人类发起战争。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A continent-wide network of heavily armed towers protects
+the Bastion, humanity's last refuge.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢游玩本游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹珠币可通过游玩弹珠机获得，用于购买各类强化。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处决生命值低于25%的敌人几率+{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使敌人和精英怪掉落的资源数量翻倍几率+{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在采集资源时恢复生命值几率+{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对生命值低于50%的敌人造成的伤害提高{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对生命值高于50%的敌人造成伤害提升{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动收集资源几率+{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到精英敌人伤害降低{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对精英敌人造成的伤害提高{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人死亡时+{0}%几率爆炸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从皮纳塔掉落所有可收集资源几率+{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有资源获取的经验值提升{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功完成关卡后，额外+{0}%经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡以任意方式结束后，额外+{0}%资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集资源会对随机敌人造成{0}点伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级炮塔</t>
+  </si>
+  <si>
+    <t>当炮塔生命值低于50%时，对敌人造成的伤害提升{0}%。</t>
+  </si>
+  <si>
+    <t>炮塔依然坚挺，但还能支撑多久？  
+机械军团正在不断进化。</t>
+  </si>
+  <si>
+    <t>从炮塔释放一道不断扩散的死亡冲击波</t>
+  </si>
+  <si>
+    <t>在炮塔周围生成可再生的防护层</t>
+  </si>
+  <si>
+    <t>炮塔</t>
+  </si>
+  <si>
+    <t>若炮塔生命值高于50%，对敌人造成的伤害提升{0}%。</t>
+  </si>
+  <si>
+    <t>勋章在炮塔升级时获得，可用于购买强化组件</t>
+  </si>
+  <si>
+    <t>一座遍布大陆的武装炮塔网络，正守护着人类最后的避难所——堡垒。</t>
+  </si>
+  <si>
+    <t>一座遍布大陆的武装炮塔网络，正守护着人类最后的避难所——巴斯特恩。</t>
+  </si>
+  <si>
+    <t>宝藏由皮纳塔掉落。用于购买升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量核心在成功完成程序后获得。可用于购买升级。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This game contains visual effects that may trigger seizures or cause discomfort for individuals with photosensitive epilepsy. Viewer discretion is advised.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒潮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级炮塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹珠机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易爆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处刑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>终结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若炮塔生命值高于50%，对敌人造成的伤害提升{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若炮塔生命值低于50%，对敌人造成的伤害提升{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理器可通过消灭敌人和精英武器获得，用于购买强化项与升级弹珠机。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The towers are holding strong, but for how long?
+The machine army evolves.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮塔依然坚挺，但还能支撑多久？  
+机械军团仍在不断进化。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类绝不能落后。
+炮塔必须愈发坚固。
+要么进化，要么灭亡。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BastionOS is a chill active incremental game where you command a military terminal to stack ludicrous weapons and upgrades onto a lone tower facing an endless machine army. Destroy a gigantic evolving horde, get destroyed, unlock new tech, repeat, and get strong enough to survive the next level.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BastionOS是一款轻松休闲的即时策略游戏，您将操控军事终端，在炮塔上堆叠各种荒诞武器与升级组件，直面无穷无尽的机械军团。摧毁不断进化的庞大军团，经历挫败，解锁全新科技，周而复始地强化实力，直至足以在更高层级的战斗中存活。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">//This Demo includes the first 5 of 25 total levels, and early stages of the skill tree. 
@@ -2437,496 +2948,26 @@
 //Research new and increasingly powerful tech.
 //Defend the Bastion until the end. You and your weapons research program are the last line of defense against the machine army. There's no telling if this reckless operation will allow Humanity to survive. What will happen when the horde becomes insurmountable?
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>//本试玩版包含总计25个关卡中的前5关，以及技能树的初期内容。
 //选定关卡后，将炮塔火力瞄准来袭敌军。轰！记得拾取敌人掉落的所有珍贵资源。
 //炮塔终将陷落。但在您的指挥下，它必将以更强姿态重生。通过武器与强化模块巩固防御工事。
-//研发日新月异的尖端科技。
+//研发日新月异的强大科技。
 //坚守堡垒至最后一刻。您与武器研发计划是人类对抗机械军团的最后防线。这场孤注一掷的行动能否延续人类文明？当敌军洪流势不可挡之时，又将发生怎样的故事？</t>
-  </si>
-  <si>
-    <t>NOTES TO TRANSLATOR</t>
-  </si>
-  <si>
-    <t>译者注</t>
-  </si>
-  <si>
-    <t>Please localize the yellow highlighted cells only.</t>
-  </si>
-  <si>
-    <t>请仅对黄色高亮单元格进行本地化处理。</t>
-  </si>
-  <si>
-    <t>Please use the column of your language to insert the localization.</t>
-  </si>
-  <si>
-    <t>请使用对应语言栏位填写本地化内容。</t>
-  </si>
-  <si>
-    <t>Since this is a game localization project, your maximum effort on ensuring the language to sound as natural and as suitable as the game's requirement will be very much appreciated.</t>
-  </si>
-  <si>
-    <t>Please do not delete any rows or columns from the file. If you remove the filtering you will see some red highlighted rows, which will not be translated. We will only translate the yellow highlighted cells.</t>
-  </si>
-  <si>
-    <t>请勿删除文件中的任何行或列。若取消筛选，您将看到部分标红高亮的行，这些内容无需翻译。我们仅翻译黄色高亮的单元格。</t>
-  </si>
-  <si>
-    <t>If you need, please request the demo from me.</t>
-  </si>
-  <si>
-    <t>如需试玩，请向我索取演示版。</t>
-  </si>
-  <si>
-    <t>Thank you! :)</t>
-  </si>
-  <si>
-    <t>感谢！ ：）</t>
-  </si>
-  <si>
-    <t>zh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>简体中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续游戏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>This game contains visual effects that may trigger seizures or cause discomfort for individuals with photosensitive epilepsy. Viewer discretion is advised.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本游戏包含可能诱发癫痫发作或导致光敏性癫痫患者不适的视觉特效。请谨慎观看。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请按任意键继续</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹珠机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全屏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主音量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>准星显示冷却</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已摧毁精英数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已摧毁精英武器数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总览</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Destroyed targets breakdown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已摧毁目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>空袭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转锯刃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>切割者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大炮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派遣一支自动索敌的轰炸机编队</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>向随机选定目标发射巨型激光</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>围绕准星旋转生成巨型圆锯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>向塔周围射出一圈射弹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炮弹落点将形成持续燃烧的火场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从塔上发射一道不断扩散的死亡冲击波</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间结束时，切割者将召唤巨型鲨鱼吞噬该区域</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在塔周围生成可再生的防护层</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射轨道激光至随机位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成掉落宝物的皮纳塔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁能力：从摧毁敌人和精英武器中提取处理器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁强化：可使用勋章购买强力特效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁弹珠机：可获取柏青币的弹珠机模拟程序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unlocks PachinEmu, the pachinko emulator that grants Pachinkoins</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币倍率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>球体倍率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>球体值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add Bumper</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加缓冲器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲撞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘟哝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>探求者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级塔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁{0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级{0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>摧毁{0}个{1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉动弹珠杆{0}次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得{0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成第{0}关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成{0}个关卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成{0}项任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲁莽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计花费{0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜！您已通关试玩版。若想获取完整版上线通知，请将本游戏添加至Steam愿望单。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地球
-机械浩劫数月之后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earth
-A few months after the machine armageddon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Metal armadas,
-stretching all the way to the horizon,
-wage war against humanity.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属舰队，
-横贯天际，
-向人类发起战争。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//本试玩版包含总计25个关卡中的前5关，以及技能树的初期内容。
-//选定关卡后，将炮塔火力瞄准来袭敌军。轰！记得拾取敌人掉落的所有珍贵资源。
-//炮塔终将陷落。但在您的指挥下，它必将以更强姿态重生。通过武器与强化模块巩固防御工事。
-//研发日新月异的尖端科技。
-//坚守堡垒至最后一刻。您与武器研发计划是人类对抗机械军团的最后防线。这场孤注一掷的行动能否延续人类文明？当敌军洪流势不可挡之时，又将发生怎样的故事？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BastionOS is a chill active incremental game where you command a military terminal to stack ludicrous weapons and upgrades onto a lone tower facing an endless machine army. Destroy a gigantic evolving horde, get destroyed, unlock new tech, repeat, and get strong enough to survive the next level.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BastionOS是一款轻松休闲的即时策略游戏，您将操控军事终端，在孤塔上堆叠各种荒诞武器与升级组件，直面无穷无尽的机械军团。摧毁不断进化的庞大军团，经历挫败，解锁全新科技，周而复始地强化实力，直至足以在更高层级的战斗中存活。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A continent-wide network of heavily armed towers protects
-the Bastion, humanity's last refuge.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>感谢游玩本游戏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹珠币可通过游玩弹珠机获得，用于购买各类强化。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>处决生命值低于25%的敌人几率+{0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使敌人和精英怪掉落的资源数量翻倍几率+{0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在采集资源时恢复生命值几率+{0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对生命值低于50%的敌人造成的伤害提高{0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对生命值高于50%的敌人造成伤害提升{0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动收集资源几率+{0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到精英敌人伤害降低{0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对精英敌人造成的伤害提高{0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人死亡时+{0}%几率爆炸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从皮纳塔掉落所有可收集资源几率+{0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有资源获取的经验值提升{0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功完成关卡后，额外+{0}%经验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡以任意方式结束后，额外+{0}%资源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集资源会对随机敌人造成{0}点伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级炮塔</t>
-  </si>
-  <si>
-    <t>当炮塔生命值低于50%时，对敌人造成的伤害提升{0}%</t>
-  </si>
-  <si>
-    <t>当炮塔生命值低于50%时，对敌人造成的伤害提升{0}%。</t>
-  </si>
-  <si>
-    <t>炮塔依然坚挺，但还能支撑多久？  
-机械军团正在不断进化。</t>
-  </si>
-  <si>
-    <t>若炮塔生命值高于50%，对敌人造成的伤害提升{0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从炮塔释放一道不断扩散的死亡冲击波</t>
-  </si>
-  <si>
-    <t>在炮塔周围生成可再生的防护层</t>
-  </si>
-  <si>
-    <t>炮塔</t>
-  </si>
-  <si>
-    <t>若炮塔生命值高于50%，对敌人造成的伤害提升{0}%。</t>
-  </si>
-  <si>
-    <t>勋章在炮塔升级时获得，可用于购买强化组件</t>
-  </si>
-  <si>
-    <t>一座遍布大陆的武装炮塔网络，正守护着人类最后的避难所——堡垒。</t>
-  </si>
-  <si>
-    <t>一座遍布大陆的武装炮塔网络，正守护着人类最后的避难所——巴斯特恩。</t>
-  </si>
-  <si>
-    <t>宝藏由皮纳塔掉落。用于购买升级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理器可通过消灭敌人和精英武器获得，用于购买强化项与升级弹珠机。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量核心在成功完成程序后获得。可用于购买升级。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作人员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2938,6 +2979,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3302,21 +3344,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="36.875" customWidth="1"/>
     <col min="2" max="2" width="89" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="106" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3327,7 +3370,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3351,13 +3394,13 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3368,7 +3411,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -3389,21 +3432,21 @@
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>818</v>
+        <v>911</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -3427,7 +3470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3438,13 +3481,13 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="L4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3461,7 +3504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -3478,7 +3521,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -3489,13 +3532,13 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="L7" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3506,13 +3549,13 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="L8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -3523,13 +3566,13 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="L9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3540,13 +3583,13 @@
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="L10" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -3563,7 +3606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -3577,7 +3620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -3594,7 +3637,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -3605,13 +3648,13 @@
         <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="L14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -3628,7 +3671,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -3639,13 +3682,13 @@
         <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="L16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -3662,7 +3705,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -3679,7 +3722,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -3696,7 +3739,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -3713,7 +3756,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -3724,13 +3767,13 @@
         <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="L21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -3747,7 +3790,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -3764,7 +3807,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -3781,7 +3824,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -3792,13 +3835,13 @@
         <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L25" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -3815,7 +3858,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>118</v>
       </c>
@@ -3826,13 +3869,13 @@
         <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="L27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>122</v>
       </c>
@@ -3849,7 +3892,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>126</v>
       </c>
@@ -3860,13 +3903,13 @@
         <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="L29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -3883,7 +3926,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -3900,7 +3943,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -3917,7 +3960,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -3934,7 +3977,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -3951,7 +3994,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>150</v>
       </c>
@@ -3968,7 +4011,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -3979,13 +4022,13 @@
         <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="L36" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>158</v>
       </c>
@@ -3996,13 +4039,13 @@
         <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="L37" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -4019,7 +4062,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -4030,30 +4073,30 @@
         <v>168</v>
       </c>
       <c r="D39" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="L39" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C40" t="s">
         <v>171</v>
       </c>
       <c r="D40" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="L40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>173</v>
       </c>
@@ -4064,13 +4107,13 @@
         <v>175</v>
       </c>
       <c r="D41" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="L41" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>177</v>
       </c>
@@ -4087,7 +4130,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>181</v>
       </c>
@@ -4104,7 +4147,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>184</v>
       </c>
@@ -4115,13 +4158,13 @@
         <v>185</v>
       </c>
       <c r="D44" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="L44" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>187</v>
       </c>
@@ -4138,7 +4181,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -4155,7 +4198,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>194</v>
       </c>
@@ -4172,7 +4215,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>198</v>
       </c>
@@ -4189,7 +4232,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>202</v>
       </c>
@@ -4200,13 +4243,13 @@
         <v>203</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>912</v>
       </c>
       <c r="L49" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>205</v>
       </c>
@@ -4217,13 +4260,13 @@
         <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="L50" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>208</v>
       </c>
@@ -4240,7 +4283,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>210</v>
       </c>
@@ -4257,7 +4300,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>213</v>
       </c>
@@ -4274,7 +4317,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>215</v>
       </c>
@@ -4291,7 +4334,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -4308,7 +4351,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -4325,7 +4368,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>224</v>
       </c>
@@ -4342,7 +4385,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>228</v>
       </c>
@@ -4359,7 +4402,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>231</v>
       </c>
@@ -4370,13 +4413,13 @@
         <v>232</v>
       </c>
       <c r="D59" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="L59" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>234</v>
       </c>
@@ -4393,7 +4436,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>238</v>
       </c>
@@ -4404,13 +4447,13 @@
         <v>239</v>
       </c>
       <c r="D61" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="L61" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>240</v>
       </c>
@@ -4427,7 +4470,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>243</v>
       </c>
@@ -4444,7 +4487,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>247</v>
       </c>
@@ -4455,13 +4498,13 @@
         <v>249</v>
       </c>
       <c r="D64" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="L64" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>251</v>
       </c>
@@ -4478,7 +4521,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>255</v>
       </c>
@@ -4495,7 +4538,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>259</v>
       </c>
@@ -4506,13 +4549,13 @@
         <v>261</v>
       </c>
       <c r="D67" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="L67" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>263</v>
       </c>
@@ -4529,7 +4572,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>267</v>
       </c>
@@ -4546,7 +4589,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>271</v>
       </c>
@@ -4557,13 +4600,13 @@
         <v>273</v>
       </c>
       <c r="D70" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="L70" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>275</v>
       </c>
@@ -4574,13 +4617,13 @@
         <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="L71" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>279</v>
       </c>
@@ -4591,13 +4634,13 @@
         <v>281</v>
       </c>
       <c r="D72" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="L72" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>283</v>
       </c>
@@ -4608,13 +4651,13 @@
         <v>285</v>
       </c>
       <c r="D73" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="L73" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>286</v>
       </c>
@@ -4631,7 +4674,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>290</v>
       </c>
@@ -4642,13 +4685,13 @@
         <v>292</v>
       </c>
       <c r="D75" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="L75" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>294</v>
       </c>
@@ -4659,13 +4702,13 @@
         <v>296</v>
       </c>
       <c r="D76" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="L76" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>297</v>
       </c>
@@ -4682,7 +4725,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>301</v>
       </c>
@@ -4699,7 +4742,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>305</v>
       </c>
@@ -4716,7 +4759,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>309</v>
       </c>
@@ -4733,7 +4776,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>313</v>
       </c>
@@ -4750,7 +4793,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>317</v>
       </c>
@@ -4761,13 +4804,13 @@
         <v>319</v>
       </c>
       <c r="D82" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="L82" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>321</v>
       </c>
@@ -4778,13 +4821,13 @@
         <v>323</v>
       </c>
       <c r="D83" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="L83" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>325</v>
       </c>
@@ -4801,7 +4844,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>329</v>
       </c>
@@ -4812,13 +4855,13 @@
         <v>331</v>
       </c>
       <c r="D85" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="L85" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>333</v>
       </c>
@@ -4829,30 +4872,30 @@
         <v>335</v>
       </c>
       <c r="D86" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="L86" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
         <v>337</v>
       </c>
       <c r="B87" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C87" t="s">
         <v>338</v>
       </c>
       <c r="D87" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="L87" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>340</v>
       </c>
@@ -4869,7 +4912,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
         <v>344</v>
       </c>
@@ -4886,7 +4929,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
         <v>347</v>
       </c>
@@ -4903,7 +4946,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
         <v>351</v>
       </c>
@@ -4920,7 +4963,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -4937,7 +4980,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>355</v>
       </c>
@@ -4954,7 +4997,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>359</v>
       </c>
@@ -4965,13 +5008,13 @@
         <v>361</v>
       </c>
       <c r="D94" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="L94" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>363</v>
       </c>
@@ -4982,13 +5025,13 @@
         <v>365</v>
       </c>
       <c r="D95" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="L95" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
         <v>367</v>
       </c>
@@ -4999,13 +5042,13 @@
         <v>368</v>
       </c>
       <c r="D96" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="L96" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
         <v>370</v>
       </c>
@@ -5019,7 +5062,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
         <v>373</v>
       </c>
@@ -5030,13 +5073,13 @@
         <v>374</v>
       </c>
       <c r="D98" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="L98" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
         <v>376</v>
       </c>
@@ -5053,7 +5096,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
         <v>379</v>
       </c>
@@ -5070,7 +5113,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
         <v>139</v>
       </c>
@@ -5087,7 +5130,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:12">
       <c r="A102" t="s">
         <v>382</v>
       </c>
@@ -5095,13 +5138,13 @@
         <v>383</v>
       </c>
       <c r="D102" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="L102" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
         <v>385</v>
       </c>
@@ -5118,7 +5161,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
         <v>389</v>
       </c>
@@ -5135,7 +5178,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
         <v>393</v>
       </c>
@@ -5152,7 +5195,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
         <v>397</v>
       </c>
@@ -5169,7 +5212,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>401</v>
       </c>
@@ -5186,7 +5229,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
         <v>405</v>
       </c>
@@ -5203,7 +5246,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
         <v>408</v>
       </c>
@@ -5220,7 +5263,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
         <v>411</v>
       </c>
@@ -5237,7 +5280,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
         <v>415</v>
       </c>
@@ -5254,7 +5297,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
         <v>418</v>
       </c>
@@ -5271,7 +5314,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
         <v>422</v>
       </c>
@@ -5288,7 +5331,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
         <v>426</v>
       </c>
@@ -5305,7 +5348,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
         <v>429</v>
       </c>
@@ -5322,7 +5365,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
         <v>433</v>
       </c>
@@ -5339,7 +5382,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
         <v>436</v>
       </c>
@@ -5356,7 +5399,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
         <v>440</v>
       </c>
@@ -5367,13 +5410,13 @@
         <v>442</v>
       </c>
       <c r="D118" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="L118" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
         <v>444</v>
       </c>
@@ -5384,30 +5427,30 @@
         <v>446</v>
       </c>
       <c r="D119" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="L119" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
         <v>448</v>
       </c>
       <c r="B120" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C120" t="s">
         <v>449</v>
       </c>
       <c r="D120" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="L120" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
         <v>451</v>
       </c>
@@ -5424,7 +5467,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
         <v>455</v>
       </c>
@@ -5441,7 +5484,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
         <v>459</v>
       </c>
@@ -5458,7 +5501,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
         <v>463</v>
       </c>
@@ -5475,7 +5518,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
         <v>467</v>
       </c>
@@ -5492,7 +5535,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
         <v>471</v>
       </c>
@@ -5503,13 +5546,13 @@
         <v>472</v>
       </c>
       <c r="D126" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="L126" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
         <v>474</v>
       </c>
@@ -5526,7 +5569,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
         <v>478</v>
       </c>
@@ -5543,7 +5586,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:12">
       <c r="A129" t="s">
         <v>481</v>
       </c>
@@ -5560,7 +5603,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>485</v>
       </c>
@@ -5577,7 +5620,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>488</v>
       </c>
@@ -5594,7 +5637,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>492</v>
       </c>
@@ -5611,7 +5654,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:12">
       <c r="A133" t="s">
         <v>495</v>
       </c>
@@ -5622,13 +5665,13 @@
         <v>496</v>
       </c>
       <c r="D133" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="L133" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
         <v>497</v>
       </c>
@@ -5645,7 +5688,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
         <v>501</v>
       </c>
@@ -5662,7 +5705,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
         <v>504</v>
       </c>
@@ -5673,13 +5716,13 @@
         <v>506</v>
       </c>
       <c r="D136" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="L136" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
         <v>508</v>
       </c>
@@ -5690,13 +5733,13 @@
         <v>508</v>
       </c>
       <c r="D137" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="L137" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
         <v>510</v>
       </c>
@@ -5713,7 +5756,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
         <v>514</v>
       </c>
@@ -5730,7 +5773,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:12">
       <c r="A140" t="s">
         <v>517</v>
       </c>
@@ -5747,7 +5790,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:12">
       <c r="A141" t="s">
         <v>521</v>
       </c>
@@ -5758,13 +5801,13 @@
         <v>523</v>
       </c>
       <c r="D141" t="s">
-        <v>866</v>
+        <v>913</v>
       </c>
       <c r="L141" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" t="s">
         <v>524</v>
       </c>
@@ -5775,13 +5818,13 @@
         <v>526</v>
       </c>
       <c r="D142" t="s">
-        <v>867</v>
+        <v>914</v>
       </c>
       <c r="L142" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" t="s">
         <v>527</v>
       </c>
@@ -5792,13 +5835,13 @@
         <v>529</v>
       </c>
       <c r="D143" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="L143" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:12">
       <c r="A144" t="s">
         <v>531</v>
       </c>
@@ -5809,13 +5852,13 @@
         <v>533</v>
       </c>
       <c r="D144" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="L144" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:12">
       <c r="A145" t="s">
         <v>535</v>
       </c>
@@ -5826,13 +5869,13 @@
         <v>48</v>
       </c>
       <c r="D145" t="s">
-        <v>49</v>
+        <v>915</v>
       </c>
       <c r="L145" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:12">
       <c r="A146" t="s">
         <v>536</v>
       </c>
@@ -5849,7 +5892,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:12">
       <c r="A147" t="s">
         <v>537</v>
       </c>
@@ -5866,7 +5909,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:12">
       <c r="A148" t="s">
         <v>541</v>
       </c>
@@ -5877,13 +5920,13 @@
         <v>52</v>
       </c>
       <c r="D148" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="L148" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:12">
       <c r="A149" t="s">
         <v>542</v>
       </c>
@@ -5900,7 +5943,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:12">
       <c r="A150" t="s">
         <v>546</v>
       </c>
@@ -5911,13 +5954,13 @@
         <v>44</v>
       </c>
       <c r="D150" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="L150" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:12">
       <c r="A151" t="s">
         <v>547</v>
       </c>
@@ -5934,7 +5977,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:12">
       <c r="A152" t="s">
         <v>551</v>
       </c>
@@ -5945,13 +5988,13 @@
         <v>553</v>
       </c>
       <c r="D152" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="L152" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:12">
       <c r="A153" t="s">
         <v>555</v>
       </c>
@@ -5962,13 +6005,13 @@
         <v>557</v>
       </c>
       <c r="D153" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="L153" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:12">
       <c r="A154" t="s">
         <v>559</v>
       </c>
@@ -5979,13 +6022,13 @@
         <v>561</v>
       </c>
       <c r="D154" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="L154" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:12">
       <c r="A155" t="s">
         <v>563</v>
       </c>
@@ -6002,7 +6045,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:12">
       <c r="A156" t="s">
         <v>567</v>
       </c>
@@ -6013,13 +6056,13 @@
         <v>569</v>
       </c>
       <c r="D156" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="L156" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:12">
       <c r="A157" t="s">
         <v>571</v>
       </c>
@@ -6030,13 +6073,13 @@
         <v>573</v>
       </c>
       <c r="D157" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="L157" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:12">
       <c r="A158" t="s">
         <v>575</v>
       </c>
@@ -6047,13 +6090,13 @@
         <v>577</v>
       </c>
       <c r="D158" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="L158" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:12">
       <c r="A159" t="s">
         <v>579</v>
       </c>
@@ -6070,7 +6113,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:12">
       <c r="A160" t="s">
         <v>583</v>
       </c>
@@ -6087,7 +6130,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:12">
       <c r="A161" t="s">
         <v>587</v>
       </c>
@@ -6104,7 +6147,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:12">
       <c r="A162" t="s">
         <v>591</v>
       </c>
@@ -6121,7 +6164,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:12">
       <c r="A163" t="s">
         <v>595</v>
       </c>
@@ -6132,13 +6175,13 @@
         <v>597</v>
       </c>
       <c r="D163" t="s">
-        <v>598</v>
+        <v>918</v>
       </c>
       <c r="L163" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:12">
       <c r="A164" t="s">
         <v>599</v>
       </c>
@@ -6155,7 +6198,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:12">
       <c r="A165" t="s">
         <v>603</v>
       </c>
@@ -6166,13 +6209,13 @@
         <v>605</v>
       </c>
       <c r="D165" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="L165" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:12">
       <c r="A166" t="s">
         <v>607</v>
       </c>
@@ -6183,13 +6226,13 @@
         <v>609</v>
       </c>
       <c r="D166" t="s">
-        <v>610</v>
+        <v>917</v>
       </c>
       <c r="L166" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:12">
       <c r="A167" t="s">
         <v>611</v>
       </c>
@@ -6200,13 +6243,13 @@
         <v>613</v>
       </c>
       <c r="D167" t="s">
-        <v>614</v>
+        <v>916</v>
       </c>
       <c r="L167" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:12">
       <c r="A168" t="s">
         <v>615</v>
       </c>
@@ -6217,13 +6260,13 @@
         <v>617</v>
       </c>
       <c r="D168" t="s">
-        <v>618</v>
+        <v>919</v>
       </c>
       <c r="L168" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:12">
       <c r="A169" t="s">
         <v>619</v>
       </c>
@@ -6240,7 +6283,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:12">
       <c r="A170" t="s">
         <v>623</v>
       </c>
@@ -6257,7 +6300,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:12">
       <c r="A171" t="s">
         <v>627</v>
       </c>
@@ -6274,7 +6317,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:12">
       <c r="A172" t="s">
         <v>628</v>
       </c>
@@ -6291,7 +6334,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:12">
       <c r="A173" t="s">
         <v>632</v>
       </c>
@@ -6308,7 +6351,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:12">
       <c r="A174" t="s">
         <v>636</v>
       </c>
@@ -6319,13 +6362,13 @@
         <v>638</v>
       </c>
       <c r="D174" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="L174" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:12">
       <c r="A175" t="s">
         <v>640</v>
       </c>
@@ -6336,13 +6379,13 @@
         <v>642</v>
       </c>
       <c r="D175" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="L175" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:12">
       <c r="A176" t="s">
         <v>644</v>
       </c>
@@ -6353,13 +6396,13 @@
         <v>646</v>
       </c>
       <c r="D176" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="L176" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:12">
       <c r="A177" t="s">
         <v>648</v>
       </c>
@@ -6370,13 +6413,13 @@
         <v>650</v>
       </c>
       <c r="D177" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="L177" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:12">
       <c r="A178" t="s">
         <v>652</v>
       </c>
@@ -6387,13 +6430,13 @@
         <v>654</v>
       </c>
       <c r="D178" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="L178" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:12">
       <c r="A179" t="s">
         <v>656</v>
       </c>
@@ -6404,13 +6447,13 @@
         <v>658</v>
       </c>
       <c r="D179" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="L179" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:12">
       <c r="A180" t="s">
         <v>660</v>
       </c>
@@ -6421,13 +6464,13 @@
         <v>662</v>
       </c>
       <c r="D180" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="L180" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:12">
       <c r="A181" t="s">
         <v>664</v>
       </c>
@@ -6438,13 +6481,13 @@
         <v>666</v>
       </c>
       <c r="D181" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="L181" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:12">
       <c r="A182" t="s">
         <v>668</v>
       </c>
@@ -6455,13 +6498,13 @@
         <v>670</v>
       </c>
       <c r="D182" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="L182" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:12">
       <c r="A183" t="s">
         <v>672</v>
       </c>
@@ -6472,13 +6515,13 @@
         <v>674</v>
       </c>
       <c r="D183" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="L183" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:12">
       <c r="A184" t="s">
         <v>676</v>
       </c>
@@ -6489,13 +6532,13 @@
         <v>678</v>
       </c>
       <c r="D184" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="L184" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:12">
       <c r="A185" t="s">
         <v>680</v>
       </c>
@@ -6506,13 +6549,13 @@
         <v>682</v>
       </c>
       <c r="D185" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="L185" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:12">
       <c r="A186" t="s">
         <v>684</v>
       </c>
@@ -6523,13 +6566,13 @@
         <v>686</v>
       </c>
       <c r="D186" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="L186" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:12">
       <c r="A187" t="s">
         <v>688</v>
       </c>
@@ -6540,13 +6583,13 @@
         <v>690</v>
       </c>
       <c r="D187" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="L187" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:12">
       <c r="A188" t="s">
         <v>692</v>
       </c>
@@ -6557,13 +6600,13 @@
         <v>694</v>
       </c>
       <c r="D188" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="L188" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:12">
       <c r="A189" t="s">
         <v>696</v>
       </c>
@@ -6574,13 +6617,13 @@
         <v>698</v>
       </c>
       <c r="D189" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="L189" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.15">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" t="s">
         <v>699</v>
       </c>
@@ -6591,13 +6634,13 @@
         <v>701</v>
       </c>
       <c r="D190" t="s">
-        <v>908</v>
+        <v>921</v>
       </c>
       <c r="L190" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.15">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" t="s">
         <v>702</v>
       </c>
@@ -6614,7 +6657,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:12">
       <c r="A192" t="s">
         <v>706</v>
       </c>
@@ -6631,7 +6674,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:12">
       <c r="A193" t="s">
         <v>710</v>
       </c>
@@ -6642,13 +6685,13 @@
         <v>711</v>
       </c>
       <c r="D193" t="s">
-        <v>712</v>
+        <v>930</v>
       </c>
       <c r="L193" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:12">
       <c r="A194" t="s">
         <v>713</v>
       </c>
@@ -6665,7 +6708,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:12">
       <c r="A195" t="s">
         <v>716</v>
       </c>
@@ -6682,7 +6725,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:12">
       <c r="A196" t="s">
         <v>720</v>
       </c>
@@ -6699,7 +6742,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:12">
       <c r="A197" t="s">
         <v>724</v>
       </c>
@@ -6716,7 +6759,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:12">
       <c r="A198" t="s">
         <v>726</v>
       </c>
@@ -6727,13 +6770,13 @@
         <v>726</v>
       </c>
       <c r="D198" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="L198" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:12">
       <c r="A199" t="s">
         <v>729</v>
       </c>
@@ -6750,7 +6793,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:12">
       <c r="A200" t="s">
         <v>733</v>
       </c>
@@ -6767,7 +6810,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:12">
       <c r="A201" t="s">
         <v>737</v>
       </c>
@@ -6778,13 +6821,13 @@
         <v>739</v>
       </c>
       <c r="D201" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="L201" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.15">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" t="s">
         <v>740</v>
       </c>
@@ -6795,13 +6838,13 @@
         <v>742</v>
       </c>
       <c r="D202" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="L202" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:12">
       <c r="A203" t="s">
         <v>744</v>
       </c>
@@ -6812,13 +6855,13 @@
         <v>746</v>
       </c>
       <c r="D203" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="L203" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:12">
       <c r="A204" t="s">
         <v>748</v>
       </c>
@@ -6829,13 +6872,13 @@
         <v>750</v>
       </c>
       <c r="D204" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="L204" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:12">
       <c r="A205" t="s">
         <v>752</v>
       </c>
@@ -6846,13 +6889,13 @@
         <v>754</v>
       </c>
       <c r="D205" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="L205" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:12">
       <c r="A206" t="s">
         <v>756</v>
       </c>
@@ -6869,7 +6912,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:12">
       <c r="A207" t="s">
         <v>760</v>
       </c>
@@ -6886,7 +6929,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:12">
       <c r="A208" t="s">
         <v>764</v>
       </c>
@@ -6897,13 +6940,13 @@
         <v>766</v>
       </c>
       <c r="D208" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="L208" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:12">
       <c r="A209" t="s">
         <v>768</v>
       </c>
@@ -6920,7 +6963,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:12">
       <c r="A210" t="s">
         <v>772</v>
       </c>
@@ -6931,13 +6974,13 @@
         <v>774</v>
       </c>
       <c r="D210" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="L210" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:12">
       <c r="A211" t="s">
         <v>776</v>
       </c>
@@ -6948,200 +6991,179 @@
         <v>778</v>
       </c>
       <c r="D211" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="L211" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:12" ht="27">
       <c r="A212" t="s">
         <v>780</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="C212" t="s">
         <v>781</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="L212" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:12" ht="40.5">
       <c r="A213" t="s">
         <v>783</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C213" t="s">
         <v>784</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="L213" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:12" ht="27">
       <c r="A214" t="s">
         <v>786</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C214" t="s">
         <v>787</v>
       </c>
       <c r="D214" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="L214" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="108">
       <c r="A215" t="s">
         <v>788</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="C215" t="s">
         <v>789</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="40.5">
+      <c r="A216" t="s">
         <v>790</v>
       </c>
-      <c r="D215" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="L215" s="3" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A216" t="s">
+      <c r="B216" t="s">
         <v>791</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>792</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="L216" t="s">
         <v>793</v>
       </c>
-      <c r="D216" t="s">
+    </row>
+    <row r="217" spans="1:12">
+      <c r="A217" t="s">
         <v>794</v>
       </c>
-      <c r="L216" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A217" t="s">
+      <c r="B217" t="s">
+        <v>926</v>
+      </c>
+      <c r="D217" t="s">
+        <v>927</v>
+      </c>
+      <c r="L217" t="s">
         <v>795</v>
       </c>
-      <c r="B217" t="s">
-        <v>888</v>
-      </c>
-      <c r="D217" t="s">
-        <v>889</v>
-      </c>
-      <c r="L217" t="s">
+    </row>
+    <row r="218" spans="1:12" ht="216">
+      <c r="A218" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" ht="135" x14ac:dyDescent="0.15">
-      <c r="A218" t="s">
+      <c r="B218" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="L218" t="s">
         <v>797</v>
       </c>
-      <c r="B218" t="s">
+    </row>
+    <row r="222" spans="1:12">
+      <c r="B222" t="s">
         <v>798</v>
       </c>
-      <c r="D218" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="L218" t="s">
+      <c r="L222" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B222" t="s">
+    <row r="223" spans="1:12">
+      <c r="B223" t="s">
         <v>800</v>
       </c>
-      <c r="D222" t="s">
+      <c r="L223" t="s">
         <v>801</v>
       </c>
-      <c r="L222" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B223" t="s">
+    </row>
+    <row r="224" spans="1:12">
+      <c r="B224" t="s">
         <v>802</v>
       </c>
-      <c r="D223" t="s">
+      <c r="L224" t="s">
         <v>803</v>
       </c>
-      <c r="L223" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B224" t="s">
+    </row>
+    <row r="225" spans="2:12">
+      <c r="B225" t="s">
         <v>804</v>
-      </c>
-      <c r="D224" t="s">
-        <v>805</v>
-      </c>
-      <c r="L224" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="225" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B225" t="s">
-        <v>806</v>
-      </c>
-      <c r="D225" t="s">
-        <v>33</v>
       </c>
       <c r="L225" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="226" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:12">
       <c r="B226" t="s">
+        <v>805</v>
+      </c>
+      <c r="L226" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="227" spans="2:12">
+      <c r="B227" t="s">
         <v>807</v>
       </c>
-      <c r="D226" t="s">
+      <c r="L227" t="s">
         <v>808</v>
       </c>
-      <c r="L226" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="227" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B227" t="s">
+    </row>
+    <row r="228" spans="2:12">
+      <c r="B228" t="s">
         <v>809</v>
       </c>
-      <c r="D227" t="s">
+      <c r="L228" t="s">
         <v>810</v>
-      </c>
-      <c r="L227" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="228" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B228" t="s">
-        <v>811</v>
-      </c>
-      <c r="D228" t="s">
-        <v>812</v>
-      </c>
-      <c r="L228" t="s">
-        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -7152,16 +7174,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -7170,52 +7192,52 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>802</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>804</v>
-      </c>
-      <c r="B3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>806</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>807</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>809</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>810</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>811</v>
-      </c>
-      <c r="B7" t="s">
-        <v>812</v>
       </c>
     </row>
   </sheetData>
